--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="171">
   <si>
     <t>Item #</t>
   </si>
@@ -43,21 +43,27 @@
     <t>Adjusted Supplier Subtotal 1</t>
   </si>
   <si>
-    <t>&lt;Parameter prj not found&gt;</t>
-  </si>
-  <si>
-    <t>17/10/2015</t>
-  </si>
-  <si>
-    <t>12:16:45</t>
-  </si>
-  <si>
-    <t>&lt;Parameter OrderQty not found&gt;</t>
+    <t>per board</t>
+  </si>
+  <si>
+    <t>n-DAP</t>
+  </si>
+  <si>
+    <t>20/10/2015</t>
+  </si>
+  <si>
+    <t>14:15:36</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>C1, C4, C5</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
     <t>C8, C10</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>D5</t>
   </si>
   <si>
+    <t>JP2</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -109,39 +115,36 @@
     <t>SW3, SW4</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
     <t>Y1</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>JP2</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>LED_RED_0603</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>18pF</t>
   </si>
   <si>
-    <t>30pF</t>
+    <t>33pF</t>
   </si>
   <si>
     <t>1uF/MLCC</t>
   </si>
   <si>
-    <t>LED_RED_0603</t>
-  </si>
-  <si>
     <t>LED_GRN_0603</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>NSR20F30NXT5G</t>
   </si>
   <si>
+    <t>USB-MINI-B</t>
+  </si>
+  <si>
     <t>BSS84,215</t>
   </si>
   <si>
@@ -178,33 +184,30 @@
     <t>EVQ-P2202M</t>
   </si>
   <si>
+    <t>LPC11U35FHI33/501</t>
+  </si>
+  <si>
+    <t>TPS78233</t>
+  </si>
+  <si>
     <t>12MHz</t>
   </si>
   <si>
     <t>N-DAP</t>
   </si>
   <si>
-    <t>USB-MINI-B</t>
-  </si>
-  <si>
-    <t>LPC11U35FHI33/501</t>
-  </si>
-  <si>
-    <t>NCP702N</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
+    <t>0603_LED_RED</t>
+  </si>
+  <si>
     <t>0603_cap</t>
   </si>
   <si>
     <t>0603_CAP</t>
   </si>
   <si>
-    <t>0603_LED_RED</t>
-  </si>
-  <si>
     <t>0603_LED_GRN</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
     <t>0603_DIODE-CDSU101A</t>
   </si>
   <si>
+    <t>USB-MINI-B-HIR-UX60A-MB-5ST</t>
+  </si>
+  <si>
     <t>SOT323/SC70-3_SMALL</t>
   </si>
   <si>
@@ -223,30 +229,27 @@
     <t>BUTTON_4.7x3.5mm</t>
   </si>
   <si>
+    <t>QFN32_0.5mm_PAD</t>
+  </si>
+  <si>
+    <t>SOT23-5_0.95mm-NOSILK</t>
+  </si>
+  <si>
     <t>CRY-SMD4-2.5x2mm</t>
   </si>
   <si>
-    <t>USB-MINI-B-HIR-UX60A-MB-5ST</t>
-  </si>
-  <si>
-    <t>QFN32_0.5mm_PAD</t>
-  </si>
-  <si>
-    <t>SOT23-5_0.95mm-NOSILK</t>
-  </si>
-  <si>
     <t>#Column Name Error:Manufacturer</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>CAPACITOR</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DIODE</t>
   </si>
   <si>
@@ -265,133 +268,163 @@
     <t>S.Description</t>
   </si>
   <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 0.1uF 16volts X7R 10%</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 18pF 25volts C0G 5%</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 30pF 50volts C0G 5%</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10volts 1uF X5R 10%</t>
-  </si>
-  <si>
-    <t>Standard LEDs - SMD 0402 SUPER RED Non-Diff</t>
-  </si>
-  <si>
-    <t>Standard LEDs - SMD 0402 GREEN Non-Diff</t>
-  </si>
-  <si>
-    <t>Standard LEDs - SMD 0402 BLUE Non-Diff</t>
+    <t>Oosls L29k-G1j2-1-z Q65110a1757 Led Othe</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 0.1uF 10% X7R</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 25volts 18pF 2% C0G</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 33pF 5% C0G</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1.0uF 16volts X7R 10%</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Green, 570nm 10mcd, 2mA</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Blue, 470nm 45mcd, 5mA</t>
   </si>
   <si>
     <t>Schottky Diodes &amp; Rectifiers 0603 FC SCHOTTKY DIODES</t>
   </si>
   <si>
+    <t>USB Connectors MINI B RECEPT RA SMT W/O POST</t>
+  </si>
+  <si>
     <t>MOSFET -50V 200mW</t>
   </si>
   <si>
-    <t>Thick Film Resistors - SMD 1/16watt 10Kohms 1%</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1/16watt 1.5Kohms 1%</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 0402 Zero ohms 5% Tol</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1/16watt 18.2Kohms 1%</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1/16watt 680ohms 1%</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1/16watt 470ohms 1% 100ppm</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1/16watt 33.2ohms 1%</t>
+    <t>Thick Film Resistors - SMD 0603 10Kohms 1% Tol</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 1.5Kohms 1% Tol</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 Zero Ohms</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 18Kohms 5% Tol</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 1/16W 680ohm 0.5% 25ppm</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 470ohms 1% Tol</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 33.0ohms 1% Tol</t>
   </si>
   <si>
     <t>Tactile Switches 4.7x3.5mm SMD Light Touch Switch</t>
   </si>
   <si>
+    <t>ARM Microcontrollers - MCU 32-bit ARM Cortex-M0 64KB Flash 12KB SRAM</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulators Sgl Fixed Out LDO 150mA,1uA Quies Crnt</t>
+  </si>
+  <si>
     <t>Crystals 12MHz 30ppm 18pF -20C +70C</t>
   </si>
   <si>
     <t>Manufacturer 1</t>
   </si>
   <si>
+    <t>Osram Opto</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>Vishay Semiconductors</t>
+    <t>OSRAM Opto Semiconductors</t>
   </si>
   <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
+    <t>Hirose Connector</t>
+  </si>
+  <si>
     <t>Diodes Incorporated</t>
   </si>
   <si>
-    <t>Vishay / Dale</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
     <t>Panasonic</t>
   </si>
   <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
     <t>TXC Corporation</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>GRM155R71C104KA88D</t>
-  </si>
-  <si>
-    <t>GRM1555C1E180JA01D</t>
-  </si>
-  <si>
-    <t>GRM1555C1H300JA01D</t>
-  </si>
-  <si>
-    <t>C0402C105K8PACTU</t>
-  </si>
-  <si>
-    <t>VLMS1500-GS08</t>
-  </si>
-  <si>
-    <t>VLMG1500-GS08</t>
-  </si>
-  <si>
-    <t>VLMB1500-GS08</t>
+    <t>LS L29K-G1J2-1-Z</t>
+  </si>
+  <si>
+    <t>06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>02013A180GAT2A</t>
+  </si>
+  <si>
+    <t>06035A330JAT2A</t>
+  </si>
+  <si>
+    <t>GCM188R71C105KA64D</t>
+  </si>
+  <si>
+    <t>LG L29K-F2J1-24-Z</t>
+  </si>
+  <si>
+    <t>LB Q39G-L2N2-35-1</t>
+  </si>
+  <si>
+    <t>UX60A-MB-5ST</t>
   </si>
   <si>
     <t>BSS84W-7-F</t>
   </si>
   <si>
-    <t>CRCW040210K0FKED</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP1501F</t>
-  </si>
-  <si>
-    <t>CRCW040218K2FKED</t>
-  </si>
-  <si>
-    <t>CRCW0402680RFKED</t>
-  </si>
-  <si>
-    <t>CRCW0402470RFKED</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP33R2F</t>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1501V</t>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ183V</t>
+  </si>
+  <si>
+    <t>RR0816P-681-D</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4700V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF33R0V</t>
+  </si>
+  <si>
+    <t>LPC11U35FHI33/501,</t>
+  </si>
+  <si>
+    <t>TPS78233DDCR</t>
   </si>
   <si>
     <t>8Z-12.000MAAJ-T</t>
@@ -400,6 +433,9 @@
     <t>Supplier 1</t>
   </si>
   <si>
+    <t>Octopart</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -415,52 +451,64 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>81-GRM155R71C104KA88</t>
-  </si>
-  <si>
-    <t>81-GRM1555C1E180JA1D</t>
-  </si>
-  <si>
-    <t>81-GRM1555C1H300JA1D</t>
-  </si>
-  <si>
-    <t>80-C0402C105K8P</t>
-  </si>
-  <si>
-    <t>78-VLMS1500-GS08</t>
-  </si>
-  <si>
-    <t>78-VLMG1500-GS08</t>
-  </si>
-  <si>
-    <t>78-VLMB1500-GS08</t>
+    <t>Mouser - 720-LSL29K-G1J2-1-Z</t>
+  </si>
+  <si>
+    <t>581-06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>581-02013A180GAT2A</t>
+  </si>
+  <si>
+    <t>581-06035A330J</t>
+  </si>
+  <si>
+    <t>81-GCM188R71C105K64D</t>
+  </si>
+  <si>
+    <t>720-LGL29KF2J124Z</t>
+  </si>
+  <si>
+    <t>720-LBQ39GL2N2351</t>
   </si>
   <si>
     <t>863-NSR20F30NXT5G</t>
   </si>
   <si>
+    <t>798-UX60A-MB-5ST</t>
+  </si>
+  <si>
     <t>621-BSS84W-F</t>
   </si>
   <si>
-    <t>71-CRCW0402-10K-E3</t>
-  </si>
-  <si>
-    <t>660-RK73H1ETTP1501F</t>
-  </si>
-  <si>
-    <t>71-CRCW0402-18.2K-E3</t>
-  </si>
-  <si>
-    <t>71-CRCW0402-680-E3</t>
-  </si>
-  <si>
-    <t>71-CRCW0402-470-E3</t>
-  </si>
-  <si>
-    <t>660-RK73H1ETTP33R2F</t>
+    <t>667-ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1501V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3GEYJ183V</t>
+  </si>
+  <si>
+    <t>754-RR0816P-681D</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF4700V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF33R0V</t>
   </si>
   <si>
     <t>667-EVQ-P2202M</t>
+  </si>
+  <si>
+    <t>771-LPC11U35FHI33501</t>
+  </si>
+  <si>
+    <t>595-TPS78233DDCR</t>
   </si>
   <si>
     <t>717-8Z-12.000MAAJ-T</t>
@@ -489,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,8 +619,22 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +671,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -692,11 +760,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,13 +829,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -825,13 +919,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,10 +1257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,15 +1276,16 @@
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="25" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="28" style="27" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="27" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="6.42578125" style="32" customWidth="1"/>
+    <col min="16" max="17" width="6.42578125" style="30" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,60 +1293,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1232,61 +1355,61 @@
         <f>ROW(A2) - ROW($A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>60</v>
+      <c r="B2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>139</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="12">
-        <v>4227318</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L2" s="11">
+        <v>74224</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="50">
         <f>ROUNDUP(P2*N2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R2" s="34">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="S2" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R2" s="31">
+        <v>0.11658</v>
+      </c>
+      <c r="S2" s="31">
         <f>R2*Q2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T2" s="9">
+        <v>2.3315999999999999</v>
+      </c>
+      <c r="T2" s="51">
         <f>ROW(T2) - ROW($A$1)</f>
         <v>1</v>
       </c>
@@ -1296,61 +1419,61 @@
         <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>60</v>
+      <c r="B3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="12">
-        <v>65669</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="12">
-        <v>2</v>
-      </c>
-      <c r="P3" s="13">
+        <v>142</v>
+      </c>
+      <c r="L3" s="11">
+        <v>482487</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3</v>
+      </c>
+      <c r="P3" s="46">
         <v>100</v>
       </c>
-      <c r="Q3" s="13" t="e">
+      <c r="Q3" s="50">
         <f t="shared" ref="Q3:Q23" si="1">ROUNDUP(P3*N3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R3" s="34">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="S3" s="34" t="e">
+        <v>100</v>
+      </c>
+      <c r="R3" s="31">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S3" s="31">
         <f t="shared" ref="S3:S23" si="2">R3*Q3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T3" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="T3" s="51">
         <f t="shared" ref="T3:T23" si="3">ROW(T3) - ROW($A$1)</f>
         <v>2</v>
       </c>
@@ -1360,61 +1483,61 @@
         <f>ROW(A4) - ROW($A$1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>60</v>
+      <c r="B4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="12">
-        <v>74153</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="12">
+        <v>142</v>
+      </c>
+      <c r="L4" s="11">
+        <v>28018</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="11">
         <v>2</v>
       </c>
-      <c r="P4" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="13" t="e">
+      <c r="P4" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="50">
         <f>ROUNDUP(P4*N4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R4" s="34">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S4" s="34" t="e">
+        <v>40</v>
+      </c>
+      <c r="R4" s="31">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S4" s="31">
         <f>R4*Q4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T4" s="9">
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="T4" s="51">
         <f>ROW(T4) - ROW($A$1)</f>
         <v>3</v>
       </c>
@@ -1424,61 +1547,61 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>61</v>
+      <c r="B5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="12">
-        <v>63417</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="12">
+        <v>142</v>
+      </c>
+      <c r="L5" s="11">
+        <v>48580</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="11">
         <v>2</v>
       </c>
-      <c r="P5" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="13" t="e">
+      <c r="P5" s="46">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="50">
         <f t="shared" ref="Q5" si="4">ROUNDUP(P5*N5,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R5" s="34">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="S5" s="34" t="e">
+        <v>100</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="31">
         <f t="shared" ref="S5" si="5">R5*Q5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T5" s="9">
+        <v>2</v>
+      </c>
+      <c r="T5" s="51">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -1488,61 +1611,61 @@
         <f>ROW(A6) - ROW($A$1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>62</v>
+      <c r="B6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="12">
-        <v>13467</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="12">
-        <v>1</v>
-      </c>
-      <c r="P6" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L6" s="11">
+        <v>196748</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="50">
         <f>ROUNDUP(P6*N6,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" s="34">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="S6" s="34" t="e">
+        <v>40</v>
+      </c>
+      <c r="R6" s="31">
+        <v>0.151</v>
+      </c>
+      <c r="S6" s="31">
         <f>R6*Q6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" s="9">
+        <v>6.04</v>
+      </c>
+      <c r="T6" s="51">
         <f>ROW(T6) - ROW($A$1)</f>
         <v>5</v>
       </c>
@@ -1552,61 +1675,61 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>63</v>
+      <c r="B7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>88</v>
+      <c r="G7" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="12">
-        <v>54548</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="12">
+        <v>142</v>
+      </c>
+      <c r="L7" s="11">
+        <v>31083</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="11">
         <v>1</v>
       </c>
-      <c r="P7" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="13" t="e">
+      <c r="P7" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="50">
         <f t="shared" ref="Q7" si="6">ROUNDUP(P7*N7,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="34">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="S7" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R7" s="31">
+        <v>0.121</v>
+      </c>
+      <c r="S7" s="31">
         <f t="shared" ref="S7" si="7">R7*Q7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="T7" s="51">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -1616,61 +1739,61 @@
         <f>ROW(A8) - ROW($A$1)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>64</v>
+      <c r="B8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>89</v>
+      <c r="G8" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="12">
+        <v>142</v>
+      </c>
+      <c r="L8" s="11">
+        <v>108800</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="13" t="e">
+      <c r="P8" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="50">
         <f>ROUNDUP(P8*N8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R8" s="34">
-        <v>0.32</v>
-      </c>
-      <c r="S8" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R8" s="31">
+        <v>0.121</v>
+      </c>
+      <c r="S8" s="31">
         <f>R8*Q8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="T8" s="51">
         <f>ROW(T8) - ROW($A$1)</f>
         <v>7</v>
       </c>
@@ -1680,61 +1803,61 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>65</v>
+      <c r="B9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>128</v>
+        <v>45</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="12">
-        <v>32441</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="12">
+        <v>142</v>
+      </c>
+      <c r="L9" s="11">
+        <v>32431</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="11">
         <v>1</v>
       </c>
-      <c r="P9" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="13" t="e">
+      <c r="P9" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="50">
         <f t="shared" ref="Q9" si="8">ROUNDUP(P9*N9,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R9" s="34">
+        <v>20</v>
+      </c>
+      <c r="R9" s="31">
         <v>0.33500000000000002</v>
       </c>
-      <c r="S9" s="34" t="e">
+      <c r="S9" s="31">
         <f t="shared" ref="S9" si="9">R9*Q9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T9" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="T9" s="51">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -1744,61 +1867,61 @@
         <f>ROW(A10) - ROW($A$1)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>66</v>
+      <c r="B10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="12">
-        <v>13609</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="12">
+        <v>142</v>
+      </c>
+      <c r="L10" s="11">
+        <v>8795</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="11">
         <v>1</v>
       </c>
-      <c r="P10" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="13" t="e">
+      <c r="P10" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="50">
         <f>ROUNDUP(P10*N10,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R10" s="34">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="S10" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R10" s="31">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="S10" s="31">
         <f>R10*Q10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T10" s="9">
+        <v>13.740000000000002</v>
+      </c>
+      <c r="T10" s="51">
         <f>ROW(T10) - ROW($A$1)</f>
         <v>9</v>
       </c>
@@ -1808,61 +1931,61 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>67</v>
+      <c r="B11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>92</v>
+      <c r="G11" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1575557</v>
-      </c>
-      <c r="M11" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="N11" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="12">
-        <v>4</v>
-      </c>
-      <c r="P11" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="13" t="e">
+      <c r="L11" s="11">
+        <v>13597</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="50">
         <f t="shared" ref="Q11" si="10">ROUNDUP(P11*N11,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" s="34">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S11" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R11" s="31">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="S11" s="31">
         <f t="shared" ref="S11" si="11">R11*Q11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="T11" s="51">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -1872,61 +1995,61 @@
         <f>ROW(A12) - ROW($A$1)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>67</v>
+      <c r="B12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="J12" s="48" t="s">
+        <v>140</v>
+      </c>
       <c r="K12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="12">
-        <v>135838</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1822371</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4</v>
+      </c>
+      <c r="P12" s="46">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="50">
         <f>ROUNDUP(P12*N12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R12" s="34">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S12" s="34" t="e">
+        <v>100</v>
+      </c>
+      <c r="R12" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S12" s="31">
         <f>R12*Q12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="51">
         <f>ROW(T12) - ROW($A$1)</f>
         <v>11</v>
       </c>
@@ -1936,55 +2059,61 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>67</v>
+      <c r="B13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="12">
-        <v>2</v>
-      </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L13" s="11">
+        <v>183199</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="50">
         <f t="shared" ref="Q13" si="12">ROUNDUP(P13*N13,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R13" s="31">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S13" s="31">
         <f t="shared" ref="S13" si="13">R13*Q13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T13" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="T13" s="51">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -1994,61 +2123,61 @@
         <f>ROW(A14) - ROW($A$1)</f>
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>67</v>
+      <c r="B14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="12">
-        <v>45772</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1222167</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2</v>
+      </c>
+      <c r="P14" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="50">
         <f>ROUNDUP(P14*N14,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R14" s="34">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S14" s="34" t="e">
+        <v>40</v>
+      </c>
+      <c r="R14" s="31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S14" s="31">
         <f>R14*Q14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T14" s="9">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="T14" s="51">
         <f>ROW(T14) - ROW($A$1)</f>
         <v>13</v>
       </c>
@@ -2058,61 +2187,61 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>67</v>
+      <c r="B15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="12">
-        <v>48885</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="12">
+        <v>142</v>
+      </c>
+      <c r="L15" s="11">
+        <v>114431</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" s="11">
         <v>1</v>
       </c>
-      <c r="P15" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="13" t="e">
+      <c r="P15" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="50">
         <f t="shared" ref="Q15" si="14">ROUNDUP(P15*N15,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R15" s="34">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S15" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R15" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S15" s="31">
         <f t="shared" ref="S15" si="15">R15*Q15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T15" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="T15" s="51">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -2122,61 +2251,61 @@
         <f>ROW(A16) - ROW($A$1)</f>
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>67</v>
+      <c r="B16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="12">
-        <v>61788</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="12">
-        <v>2</v>
-      </c>
-      <c r="P16" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L16" s="11">
+        <v>17419</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1</v>
+      </c>
+      <c r="P16" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="50">
         <f>ROUNDUP(P16*N16,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R16" s="34">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S16" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R16" s="31">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S16" s="31">
         <f>R16*Q16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T16" s="9">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="T16" s="51">
         <f>ROW(T16) - ROW($A$1)</f>
         <v>15</v>
       </c>
@@ -2186,61 +2315,61 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>67</v>
+      <c r="B17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="12">
-        <v>417900</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="12">
+        <v>142</v>
+      </c>
+      <c r="L17" s="11">
+        <v>136285</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" s="11">
         <v>2</v>
       </c>
-      <c r="P17" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="13" t="e">
+      <c r="P17" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="50">
         <f t="shared" ref="Q17" si="16">ROUNDUP(P17*N17,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R17" s="34">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S17" s="34" t="e">
+        <v>40</v>
+      </c>
+      <c r="R17" s="31">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S17" s="31">
         <f t="shared" ref="S17" si="17">R17*Q17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T17" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T17" s="51">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -2250,61 +2379,61 @@
         <f>ROW(A18) - ROW($A$1)</f>
         <v>17</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>68</v>
+      <c r="B18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>99</v>
+      <c r="G18" s="35" t="s">
+        <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="12">
-        <v>3171</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="N18" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="12">
+        <v>142</v>
+      </c>
+      <c r="L18" s="11">
+        <v>323332</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="13">
+      <c r="P18" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="50">
         <f>ROUNDUP(P18*N18,0)</f>
-        <v>50</v>
-      </c>
-      <c r="R18" s="34">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="S18" s="34">
+        <v>40</v>
+      </c>
+      <c r="R18" s="31">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S18" s="31">
         <f>R18*Q18</f>
-        <v>29.45</v>
-      </c>
-      <c r="T18" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T18" s="51">
         <f>ROW(T18) - ROW($A$1)</f>
         <v>17</v>
       </c>
@@ -2314,61 +2443,61 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>69</v>
+      <c r="B19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>100</v>
+      <c r="G19" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>128</v>
+        <v>55</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="12">
-        <v>2708</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="13" t="e">
+        <v>142</v>
+      </c>
+      <c r="L19" s="11">
+        <v>3171</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="11">
+        <v>2</v>
+      </c>
+      <c r="P19" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="50">
         <f t="shared" ref="Q19" si="18">ROUNDUP(P19*N19,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R19" s="34">
-        <v>1.36</v>
-      </c>
-      <c r="S19" s="34" t="e">
+        <v>40</v>
+      </c>
+      <c r="R19" s="31">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S19" s="31">
         <f t="shared" ref="S19" si="19">R19*Q19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T19" s="9">
+        <v>23.56</v>
+      </c>
+      <c r="T19" s="51">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -2378,55 +2507,61 @@
         <f>ROW(A20) - ROW($A$1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>55</v>
+      <c r="B20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>76</v>
+      <c r="G20" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>76</v>
+        <v>135</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="12">
+        <v>142</v>
+      </c>
+      <c r="L20" s="11">
+        <v>836</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="11">
         <v>1</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13" t="e">
+      <c r="P20" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="50">
         <f>ROUNDUP(P20*N20,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R20" s="31">
+        <v>3.29</v>
+      </c>
+      <c r="S20" s="31">
         <f>R20*Q20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T20" s="9">
+        <v>65.8</v>
+      </c>
+      <c r="T20" s="51">
         <f>ROW(T20) - ROW($A$1)</f>
         <v>19</v>
       </c>
@@ -2436,55 +2571,61 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>70</v>
+      <c r="B21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>76</v>
+      <c r="G21" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>76</v>
+        <v>136</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="12">
+        <v>142</v>
+      </c>
+      <c r="L21" s="11">
+        <v>12587</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13" t="e">
+      <c r="P21" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="50">
         <f t="shared" ref="Q21" si="20">ROUNDUP(P21*N21,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R21" s="31">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="S21" s="31">
         <f t="shared" ref="S21" si="21">R21*Q21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T21" s="9">
+        <v>14.44</v>
+      </c>
+      <c r="T21" s="51">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -2494,55 +2635,61 @@
         <f>ROW(A22) - ROW($A$1)</f>
         <v>21</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>71</v>
+      <c r="B22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>76</v>
+        <v>137</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="12">
+        <v>142</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2708</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="11">
         <v>1</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13" t="e">
+      <c r="P22" s="46">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="50">
         <f>ROUNDUP(P22*N22,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34" t="e">
+        <v>20</v>
+      </c>
+      <c r="R22" s="31">
+        <v>1.36</v>
+      </c>
+      <c r="S22" s="31">
         <f>R22*Q22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T22" s="9">
+        <v>27.200000000000003</v>
+      </c>
+      <c r="T22" s="51">
         <f>ROW(T22) - ROW($A$1)</f>
         <v>21</v>
       </c>
@@ -2552,20 +2699,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>72</v>
+      <c r="B23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="35" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -2574,115 +2721,124 @@
       <c r="I23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="48" t="s">
         <v>76</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="33" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="12">
+      <c r="N23" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="11">
         <v>1</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13" t="e">
+      <c r="P23" s="46"/>
+      <c r="Q23" s="50">
         <f t="shared" ref="Q23" si="22">ROUNDUP(P23*N23,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31">
         <f t="shared" ref="S23" si="23">R23*Q23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="51">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="25" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="48" t="s">
+      <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="K25" s="16" t="s">
+      <c r="H25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="K25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="39">
+      <c r="L25" s="15"/>
+      <c r="M25" s="36">
         <f ca="1">NOW()</f>
-        <v>42294.511682870369</v>
-      </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="40" t="s">
+        <v>42297.594236458332</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S25" s="41" t="e">
+      <c r="S25" s="38">
         <f>SUM(S2:S23)</f>
-        <v>#VALUE!</v>
+        <v>181.73160000000001</v>
+      </c>
+      <c r="T25" s="53">
+        <f>S25/P26</f>
+        <v>9.0865800000000014</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43" t="s">
+      <c r="N26" s="43"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="40" t="s">
         <v>6</v>
       </c>
+      <c r="T26" s="45" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>Item #</t>
   </si>
@@ -49,10 +49,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>20/10/2015</t>
-  </si>
-  <si>
-    <t>14:15:36</t>
+    <t>26/06/2017</t>
+  </si>
+  <si>
+    <t>11:50:35</t>
   </si>
   <si>
     <t>20</t>
@@ -91,13 +91,13 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>R1, R3, R4, R14</t>
+    <t>R1, R3, R4, R9, R14</t>
   </si>
   <si>
     <t>R10</t>
   </si>
   <si>
-    <t>R12, R13</t>
+    <t>R12</t>
   </si>
   <si>
     <t>R15</t>
@@ -238,7 +238,7 @@
     <t>CRY-SMD4-2.5x2mm</t>
   </si>
   <si>
-    <t>#Column Name Error:Manufacturer</t>
+    <t>#Column Name Error:S.Footprint</t>
   </si>
   <si>
     <t>Description</t>
@@ -334,102 +334,15 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Osram Opto</t>
-  </si>
-  <si>
-    <t>AVX</t>
-  </si>
-  <si>
-    <t>Murata Electronics</t>
-  </si>
-  <si>
-    <t>OSRAM Opto Semiconductors</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>Hirose Connector</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>Susumu</t>
-  </si>
-  <si>
-    <t>NXP Semiconductors</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>TXC Corporation</t>
+    <t>Supplier disabled</t>
+  </si>
+  <si>
+    <t>Loading...</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>LS L29K-G1J2-1-Z</t>
-  </si>
-  <si>
-    <t>06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>02013A180GAT2A</t>
-  </si>
-  <si>
-    <t>06035A330JAT2A</t>
-  </si>
-  <si>
-    <t>GCM188R71C105KA64D</t>
-  </si>
-  <si>
-    <t>LG L29K-F2J1-24-Z</t>
-  </si>
-  <si>
-    <t>LB Q39G-L2N2-35-1</t>
-  </si>
-  <si>
-    <t>UX60A-MB-5ST</t>
-  </si>
-  <si>
-    <t>BSS84W-7-F</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ183V</t>
-  </si>
-  <si>
-    <t>RR0816P-681-D</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF4700V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>LPC11U35FHI33/501,</t>
-  </si>
-  <si>
-    <t>TPS78233DDCR</t>
-  </si>
-  <si>
-    <t>8Z-12.000MAAJ-T</t>
-  </si>
-  <si>
     <t>Supplier 1</t>
   </si>
   <si>
@@ -440,9 +353,6 @@
   </si>
   <si>
     <t>Supplier Currency 1</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
   <si>
     <t>Supplier Stock 1</t>
@@ -537,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +543,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -661,12 +579,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,10 +714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,9 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,21 +782,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,7 +812,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,7 +826,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,29 +836,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -953,12 +872,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1262,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,18 +1202,18 @@
     <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="24" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="28" style="27" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="28" style="26" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="26" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="6.42578125" style="30" customWidth="1"/>
+    <col min="16" max="17" width="6.42578125" style="29" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1301,47 +1232,47 @@
       <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="53" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1351,1438 +1282,1312 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <f>ROW(A2) - ROW($A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>119</v>
+      <c r="I2" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="11">
-        <v>74224</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O2" s="11">
+        <v>110</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="10">
         <v>1</v>
       </c>
-      <c r="P2" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="50">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="49">
         <f>ROUNDUP(P2*N2,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R2" s="31">
-        <v>0.11658</v>
-      </c>
-      <c r="S2" s="31">
+        <v>0</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30">
         <f>R2*Q2</f>
-        <v>2.3315999999999999</v>
-      </c>
-      <c r="T2" s="51">
+        <v>0</v>
+      </c>
+      <c r="T2" s="50">
         <f>ROW(T2) - ROW($A$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>120</v>
+      <c r="H3" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="11">
-        <v>482487</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" s="11">
+        <v>111</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="10">
         <v>3</v>
       </c>
-      <c r="P3" s="46">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="50">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="49">
         <f t="shared" ref="Q3:Q23" si="1">ROUNDUP(P3*N3,0)</f>
-        <v>100</v>
-      </c>
-      <c r="R3" s="31">
-        <v>2.7E-2</v>
-      </c>
-      <c r="S3" s="31">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30">
         <f t="shared" ref="S3:S23" si="2">R3*Q3</f>
-        <v>2.7</v>
-      </c>
-      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
         <f t="shared" ref="T3:T23" si="3">ROW(T3) - ROW($A$1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <f>ROW(A4) - ROW($A$1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>121</v>
+      <c r="H4" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="11">
-        <v>28018</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O4" s="11">
+        <v>111</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="50">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="49">
         <f>ROUNDUP(P4*N4,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R4" s="31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="S4" s="31">
+        <v>0</v>
+      </c>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30">
         <f>R4*Q4</f>
-        <v>3.6399999999999997</v>
-      </c>
-      <c r="T4" s="51">
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
         <f>ROW(T4) - ROW($A$1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>122</v>
+      <c r="H5" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="11">
-        <v>48580</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O5" s="11">
+        <v>111</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="10">
         <v>2</v>
       </c>
-      <c r="P5" s="46">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="50">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="49">
         <f t="shared" ref="Q5" si="4">ROUNDUP(P5*N5,0)</f>
-        <v>100</v>
-      </c>
-      <c r="R5" s="31">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30">
         <f t="shared" ref="S5" si="5">R5*Q5</f>
-        <v>2</v>
-      </c>
-      <c r="T5" s="51">
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f>ROW(A6) - ROW($A$1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>123</v>
+      <c r="H6" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="11">
-        <v>196748</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="11">
+        <v>111</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="10">
         <v>2</v>
       </c>
-      <c r="P6" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="50">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="49">
         <f>ROUNDUP(P6*N6,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R6" s="31">
-        <v>0.151</v>
-      </c>
-      <c r="S6" s="31">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30">
         <f>R6*Q6</f>
-        <v>6.04</v>
-      </c>
-      <c r="T6" s="51">
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
         <f>ROW(T6) - ROW($A$1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>124</v>
+      <c r="H7" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="11">
-        <v>31083</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O7" s="11">
+        <v>111</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="10">
         <v>1</v>
       </c>
-      <c r="P7" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="50">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="49">
         <f t="shared" ref="Q7" si="6">ROUNDUP(P7*N7,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R7" s="31">
-        <v>0.121</v>
-      </c>
-      <c r="S7" s="31">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30">
         <f t="shared" ref="S7" si="7">R7*Q7</f>
-        <v>2.42</v>
-      </c>
-      <c r="T7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="50">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f>ROW(A8) - ROW($A$1)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>125</v>
+      <c r="H8" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="11">
-        <v>108800</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O8" s="11">
+        <v>111</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="10">
         <v>1</v>
       </c>
-      <c r="P8" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="50">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="49">
         <f>ROUNDUP(P8*N8,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R8" s="31">
-        <v>0.121</v>
-      </c>
-      <c r="S8" s="31">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30">
         <f>R8*Q8</f>
-        <v>2.42</v>
-      </c>
-      <c r="T8" s="51">
+        <v>0</v>
+      </c>
+      <c r="T8" s="50">
         <f>ROW(T8) - ROW($A$1)</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>45</v>
+      <c r="H9" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="11">
-        <v>32431</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="11">
+        <v>111</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="10">
         <v>1</v>
       </c>
-      <c r="P9" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="50">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="49">
         <f t="shared" ref="Q9" si="8">ROUNDUP(P9*N9,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R9" s="31">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="S9" s="31">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30">
         <f t="shared" ref="S9" si="9">R9*Q9</f>
-        <v>6.7</v>
-      </c>
-      <c r="T9" s="51">
+        <v>0</v>
+      </c>
+      <c r="T9" s="50">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <f>ROW(A10) - ROW($A$1)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="11">
-        <v>8795</v>
-      </c>
-      <c r="M10" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="K10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="50">
+      <c r="P10" s="46"/>
+      <c r="Q10" s="49">
         <f>ROUNDUP(P10*N10,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R10" s="31">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="S10" s="31">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30">
         <f>R10*Q10</f>
-        <v>13.740000000000002</v>
-      </c>
-      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="T10" s="50">
         <f>ROW(T10) - ROW($A$1)</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>127</v>
+      <c r="H11" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="11">
-        <v>13597</v>
-      </c>
-      <c r="M11" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11" s="11">
+        <v>111</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="50">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="49">
         <f t="shared" ref="Q11" si="10">ROUNDUP(P11*N11,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R11" s="31">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="S11" s="31">
+        <v>0</v>
+      </c>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30">
         <f t="shared" ref="S11" si="11">R11*Q11</f>
-        <v>4.84</v>
-      </c>
-      <c r="T11" s="51">
+        <v>0</v>
+      </c>
+      <c r="T11" s="50">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <f>ROW(A12) - ROW($A$1)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>128</v>
+      <c r="H12" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1822371</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="11">
-        <v>4</v>
-      </c>
-      <c r="P12" s="46">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="50">
+        <v>111</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="10">
+        <v>5</v>
+      </c>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="49">
         <f>ROUNDUP(P12*N12,0)</f>
-        <v>100</v>
-      </c>
-      <c r="R12" s="31">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="S12" s="31">
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30">
         <f>R12*Q12</f>
-        <v>0.8</v>
-      </c>
-      <c r="T12" s="51">
+        <v>0</v>
+      </c>
+      <c r="T12" s="50">
         <f>ROW(T12) - ROW($A$1)</f>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>129</v>
+      <c r="H13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="11">
-        <v>183199</v>
-      </c>
-      <c r="M13" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O13" s="11">
+        <v>111</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" s="10">
         <v>1</v>
       </c>
-      <c r="P13" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="50">
+      <c r="P13" s="46"/>
+      <c r="Q13" s="49">
         <f t="shared" ref="Q13" si="12">ROUNDUP(P13*N13,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R13" s="31">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="S13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30">
         <f t="shared" ref="S13" si="13">R13*Q13</f>
-        <v>0.26</v>
-      </c>
-      <c r="T13" s="51">
+        <v>0</v>
+      </c>
+      <c r="T13" s="50">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <f>ROW(A14) - ROW($A$1)</f>
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>130</v>
+      <c r="H14" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1222167</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="11">
-        <v>2</v>
-      </c>
-      <c r="P14" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="50">
+        <v>111</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="49">
         <f>ROUNDUP(P14*N14,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R14" s="31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="S14" s="31">
+        <v>0</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30">
         <f>R14*Q14</f>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="T14" s="51">
+        <v>0</v>
+      </c>
+      <c r="T14" s="50">
         <f>ROW(T14) - ROW($A$1)</f>
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>131</v>
+      <c r="H15" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="11">
-        <v>114431</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="11">
+        <v>111</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="10">
         <v>1</v>
       </c>
-      <c r="P15" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="50">
+      <c r="P15" s="46"/>
+      <c r="Q15" s="49">
         <f t="shared" ref="Q15" si="14">ROUNDUP(P15*N15,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R15" s="31">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="S15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30">
         <f t="shared" ref="S15" si="15">R15*Q15</f>
-        <v>0.36</v>
-      </c>
-      <c r="T15" s="51">
+        <v>0</v>
+      </c>
+      <c r="T15" s="50">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <f>ROW(A16) - ROW($A$1)</f>
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>132</v>
+      <c r="H16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="11">
-        <v>17419</v>
-      </c>
-      <c r="M16" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="11">
+        <v>111</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="10">
         <v>1</v>
       </c>
-      <c r="P16" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="50">
+      <c r="P16" s="46"/>
+      <c r="Q16" s="49">
         <f>ROUNDUP(P16*N16,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R16" s="31">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="S16" s="31">
+        <v>0</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30">
         <f>R16*Q16</f>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="T16" s="51">
+        <v>0</v>
+      </c>
+      <c r="T16" s="50">
         <f>ROW(T16) - ROW($A$1)</f>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>133</v>
+      <c r="H17" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="11">
-        <v>136285</v>
-      </c>
-      <c r="M17" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" s="11">
+        <v>111</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" s="10">
         <v>2</v>
       </c>
-      <c r="P17" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="50">
+      <c r="P17" s="46"/>
+      <c r="Q17" s="49">
         <f t="shared" ref="Q17" si="16">ROUNDUP(P17*N17,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R17" s="31">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S17" s="31">
+        <v>0</v>
+      </c>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30">
         <f t="shared" ref="S17" si="17">R17*Q17</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T17" s="51">
+        <v>0</v>
+      </c>
+      <c r="T17" s="50">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <f>ROW(A18) - ROW($A$1)</f>
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>134</v>
+      <c r="H18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="11">
-        <v>323332</v>
-      </c>
-      <c r="M18" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" s="11">
+        <v>111</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="10">
         <v>2</v>
       </c>
-      <c r="P18" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="50">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="49">
         <f>ROUNDUP(P18*N18,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R18" s="31">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S18" s="31">
+        <v>0</v>
+      </c>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30">
         <f>R18*Q18</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T18" s="51">
+        <v>0</v>
+      </c>
+      <c r="T18" s="50">
         <f>ROW(T18) - ROW($A$1)</f>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>55</v>
+      <c r="H19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="11">
-        <v>3171</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" s="11">
+        <v>111</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" s="10">
         <v>2</v>
       </c>
-      <c r="P19" s="46">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="50">
+      <c r="P19" s="46"/>
+      <c r="Q19" s="49">
         <f t="shared" ref="Q19" si="18">ROUNDUP(P19*N19,0)</f>
-        <v>40</v>
-      </c>
-      <c r="R19" s="31">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="S19" s="31">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30">
         <f t="shared" ref="S19" si="19">R19*Q19</f>
-        <v>23.56</v>
-      </c>
-      <c r="T19" s="51">
+        <v>0</v>
+      </c>
+      <c r="T19" s="50">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <f>ROW(A20) - ROW($A$1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>135</v>
+      <c r="H20" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="11">
-        <v>836</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O20" s="11">
+        <v>111</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" s="10">
         <v>1</v>
       </c>
-      <c r="P20" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="50">
+      <c r="P20" s="46"/>
+      <c r="Q20" s="49">
         <f>ROUNDUP(P20*N20,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R20" s="31">
-        <v>3.29</v>
-      </c>
-      <c r="S20" s="31">
+        <v>0</v>
+      </c>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30">
         <f>R20*Q20</f>
-        <v>65.8</v>
-      </c>
-      <c r="T20" s="51">
+        <v>0</v>
+      </c>
+      <c r="T20" s="50">
         <f>ROW(T20) - ROW($A$1)</f>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>136</v>
+      <c r="H21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="11">
-        <v>12587</v>
-      </c>
-      <c r="M21" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="11">
+        <v>111</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O21" s="10">
         <v>1</v>
       </c>
-      <c r="P21" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="50">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="49">
         <f t="shared" ref="Q21" si="20">ROUNDUP(P21*N21,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R21" s="31">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="S21" s="31">
+        <v>0</v>
+      </c>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30">
         <f t="shared" ref="S21" si="21">R21*Q21</f>
-        <v>14.44</v>
-      </c>
-      <c r="T21" s="51">
+        <v>0</v>
+      </c>
+      <c r="T21" s="50">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <f>ROW(A22) - ROW($A$1)</f>
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="11">
-        <v>2708</v>
-      </c>
-      <c r="M22" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="46">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="50">
+      <c r="P22" s="46"/>
+      <c r="Q22" s="49">
         <f>ROUNDUP(P22*N22,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R22" s="31">
-        <v>1.36</v>
-      </c>
-      <c r="S22" s="31">
+        <v>0</v>
+      </c>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30">
         <f>R22*Q22</f>
-        <v>27.200000000000003</v>
-      </c>
-      <c r="T22" s="51">
+        <v>0</v>
+      </c>
+      <c r="T22" s="50">
         <f>ROW(T22) - ROW($A$1)</f>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="57" t="s">
         <v>76</v>
       </c>
       <c r="J23" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="10"/>
+      <c r="M23" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="N23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="10">
         <v>1</v>
       </c>
       <c r="P23" s="46"/>
-      <c r="Q23" s="50">
+      <c r="Q23" s="49" t="e">
         <f t="shared" ref="Q23" si="22">ROUNDUP(P23*N23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30" t="e">
         <f t="shared" ref="S23" si="23">R23*Q23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" s="50">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="52"/>
+      <c r="F25" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="55" t="s">
@@ -2791,54 +2596,122 @@
       <c r="H25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="K25" s="14" t="s">
+      <c r="I25" s="16"/>
+      <c r="K25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="36">
+      <c r="L25" s="14"/>
+      <c r="M25" s="35">
         <f ca="1">NOW()</f>
-        <v>42297.594236458332</v>
-      </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="37" t="s">
+        <v>42912.4935625</v>
+      </c>
+      <c r="N25" s="41"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S25" s="38">
+      <c r="S25" s="37" t="e">
         <f>SUM(S2:S23)</f>
-        <v>181.73160000000001</v>
-      </c>
-      <c r="T25" s="53">
-        <f>S25/P26</f>
-        <v>9.0865800000000014</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" s="45" t="e">
+        <f>(SUM(S2:S23))/P26</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="32"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40" t="s">
+      <c r="Q26" s="40"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T26" s="45" t="s">
+      <c r="T26" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="P27" s="52"/>
+      <c r="P27" s="51"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" tooltip="Component" display="'Supplier disabled"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H4" r:id="rId3" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H5" r:id="rId4" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H6" r:id="rId5" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H7" r:id="rId6" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H8" r:id="rId7" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H9" r:id="rId8" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H10" r:id="rId9" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H11" r:id="rId10" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H12" r:id="rId11" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H13" r:id="rId12" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H14" r:id="rId13" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H15" r:id="rId14" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H16" r:id="rId15" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H17" r:id="rId16" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H18" r:id="rId17" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H19" r:id="rId18" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H20" r:id="rId19" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H21" r:id="rId20" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H22" r:id="rId21" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="H23" tooltip="Component" display="'"/>
+    <hyperlink ref="I2" r:id="rId22" tooltip="Manufacturer" display="'Supplier disabled"/>
+    <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I4" r:id="rId24" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I5" r:id="rId25" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I7" r:id="rId27" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I8" r:id="rId28" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I9" r:id="rId29" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I10" r:id="rId30" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I11" r:id="rId31" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I12" r:id="rId32" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I13" r:id="rId33" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I14" r:id="rId34" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I15" r:id="rId35" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I16" r:id="rId36" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I17" r:id="rId37" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I18" r:id="rId38" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I19" r:id="rId39" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I20" r:id="rId40" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I21" r:id="rId41" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I22" r:id="rId42" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="I23" tooltip="Manufacturer" display="'"/>
+    <hyperlink ref="M2" r:id="rId43" tooltip="Supplier" display="'Mouser - 720-LSL29K-G1J2-1-Z"/>
+    <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-06035C104KAT2A"/>
+    <hyperlink ref="M4" r:id="rId45" tooltip="Supplier" display="'581-02013A180GAT2A"/>
+    <hyperlink ref="M5" r:id="rId46" tooltip="Supplier" display="'581-06035A330J"/>
+    <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'81-GCM188R71C105K64D"/>
+    <hyperlink ref="M7" r:id="rId48" tooltip="Supplier" display="'720-LGL29KF2J124Z"/>
+    <hyperlink ref="M8" r:id="rId49" tooltip="Supplier" display="'720-LBQ39GL2N2351"/>
+    <hyperlink ref="M9" r:id="rId50" tooltip="Supplier" display="'863-NSR20F30NXT5G"/>
+    <hyperlink ref="M10" r:id="rId51" tooltip="Supplier" display="'798-UX60A-MB-5ST"/>
+    <hyperlink ref="M11" r:id="rId52" tooltip="Supplier" display="'621-BSS84W-F"/>
+    <hyperlink ref="M12" r:id="rId53" tooltip="Supplier" display="'667-ERJ-3EKF1002V"/>
+    <hyperlink ref="M13" r:id="rId54" tooltip="Supplier" display="'667-ERJ-3EKF1501V"/>
+    <hyperlink ref="M14" r:id="rId55" tooltip="Supplier" display="'667-ERJ-3GEY0R00V"/>
+    <hyperlink ref="M15" r:id="rId56" tooltip="Supplier" display="'667-ERJ-3GEYJ183V"/>
+    <hyperlink ref="M16" r:id="rId57" tooltip="Supplier" display="'754-RR0816P-681D"/>
+    <hyperlink ref="M17" r:id="rId58" tooltip="Supplier" display="'667-ERJ-3EKF4700V"/>
+    <hyperlink ref="M18" r:id="rId59" tooltip="Supplier" display="'667-ERJ-3EKF33R0V"/>
+    <hyperlink ref="M19" r:id="rId60" tooltip="Supplier" display="'667-EVQ-P2202M"/>
+    <hyperlink ref="M20" r:id="rId61" tooltip="Supplier" display="'771-LPC11U35FHI33501"/>
+    <hyperlink ref="M21" r:id="rId62" tooltip="Supplier" display="'595-TPS78233DDCR"/>
+    <hyperlink ref="M22" r:id="rId63" tooltip="Supplier" display="'717-8Z-12.000MAAJ-T"/>
+    <hyperlink ref="M23" tooltip="Supplier" display="'"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId64"/>
 </worksheet>
 </file>
--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
   <si>
     <t>Item #</t>
   </si>
@@ -49,10 +49,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>26/06/2017</t>
-  </si>
-  <si>
-    <t>11:50:35</t>
+    <t>17/10/2017</t>
+  </si>
+  <si>
+    <t>17:12:07</t>
   </si>
   <si>
     <t>20</t>
@@ -61,21 +61,21 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>C1, C4, C5</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>C8, C10</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>C1, C4, C5</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
-    <t>C6, C7</t>
-  </si>
-  <si>
-    <t>C8, C10</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -124,27 +124,24 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>1uF/MLCC</t>
+  </si>
+  <si>
     <t>LED_RED_0603</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>33pF</t>
-  </si>
-  <si>
-    <t>1uF/MLCC</t>
-  </si>
-  <si>
     <t>LED_GRN_0603</t>
   </si>
   <si>
@@ -193,21 +190,18 @@
     <t>12MHz</t>
   </si>
   <si>
-    <t>N-DAP</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
+    <t>0603_cap</t>
+  </si>
+  <si>
+    <t>0603_CAP</t>
+  </si>
+  <si>
     <t>0603_LED_RED</t>
   </si>
   <si>
-    <t>0603_cap</t>
-  </si>
-  <si>
-    <t>0603_CAP</t>
-  </si>
-  <si>
     <t>0603_LED_GRN</t>
   </si>
   <si>
@@ -244,12 +238,12 @@
     <t>Description</t>
   </si>
   <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>CAPACITOR</t>
-  </si>
-  <si>
     <t>DIODE</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>S.Description</t>
   </si>
   <si>
-    <t>Oosls L29k-G1j2-1-z Q65110a1757 Led Othe</t>
-  </si>
-  <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 0.1uF 10% X7R</t>
   </si>
   <si>
@@ -334,36 +325,117 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Supplier disabled</t>
-  </si>
-  <si>
-    <t>Loading...</t>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>OSRAM Opto Semiconductors</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Hirose Connector</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>TXC Corporation</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>02013A180GAT2A</t>
+  </si>
+  <si>
+    <t>06035A330JAT2A</t>
+  </si>
+  <si>
+    <t>GCM188R71C105KA64D</t>
+  </si>
+  <si>
+    <t>LS L29K-G1J2-1-Z</t>
+  </si>
+  <si>
+    <t>LG L29K-F2J1-24-Z</t>
+  </si>
+  <si>
+    <t>LB Q39G-L2OO-35-1</t>
+  </si>
+  <si>
+    <t>UX60A-MB-5ST</t>
+  </si>
+  <si>
+    <t>BSS84W-7-F</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1501V</t>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ183V</t>
+  </si>
+  <si>
+    <t>RR0816P-681-D</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4700V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF33R0V</t>
+  </si>
+  <si>
+    <t>LPC11U35FHI33/501,</t>
+  </si>
+  <si>
+    <t>TPS78233DDCR</t>
+  </si>
+  <si>
+    <t>8Z-12.000MAAJ-T</t>
+  </si>
+  <si>
     <t>Supplier 1</t>
   </si>
   <si>
-    <t>Octopart</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
     <t>Supplier Currency 1</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
     <t>Supplier Stock 1</t>
   </si>
   <si>
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>Mouser - 720-LSL29K-G1J2-1-Z</t>
-  </si>
-  <si>
     <t>581-06035C104KAT2A</t>
   </si>
   <si>
@@ -374,6 +446,9 @@
   </si>
   <si>
     <t>81-GCM188R71C105K64D</t>
+  </si>
+  <si>
+    <t>720-LSL29K-G1J2-1-Z</t>
   </si>
   <si>
     <t>720-LGL29KF2J124Z</t>
@@ -1191,7 +1266,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1227,52 +1302,52 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1290,49 +1365,55 @@
         <v>15</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L2" s="10">
+        <v>448529</v>
+      </c>
       <c r="M2" s="58" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O2" s="10">
-        <v>1</v>
-      </c>
-      <c r="P2" s="46"/>
+        <v>3</v>
+      </c>
+      <c r="P2" s="46">
+        <v>100</v>
+      </c>
       <c r="Q2" s="49">
         <f>ROUNDUP(P2*N2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="R2" s="30">
+        <v>1.6E-2</v>
+      </c>
       <c r="S2" s="30">
         <f>R2*Q2</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T2" s="50">
         <f>ROW(T2) - ROW($A$1)</f>
@@ -1341,59 +1422,65 @@
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
+        <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L3" s="10">
+        <v>33130</v>
+      </c>
       <c r="M3" s="58" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O3" s="10">
-        <v>3</v>
-      </c>
-      <c r="P3" s="46"/>
+        <v>2</v>
+      </c>
+      <c r="P3" s="46">
+        <v>40</v>
+      </c>
       <c r="Q3" s="49">
-        <f t="shared" ref="Q3:Q23" si="1">ROUNDUP(P3*N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="30"/>
+        <f t="shared" ref="Q3:Q22" si="1">ROUNDUP(P3*N3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="R3" s="30">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="S3" s="30">
-        <f t="shared" ref="S3:S23" si="2">R3*Q3</f>
-        <v>0</v>
+        <f t="shared" ref="S3:S22" si="2">R3*Q3</f>
+        <v>11.44</v>
       </c>
       <c r="T3" s="50">
-        <f t="shared" ref="T3:T23" si="3">ROW(T3) - ROW($A$1)</f>
+        <f t="shared" ref="T3:T22" si="3">ROW(T3) - ROW($A$1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1406,49 +1493,55 @@
         <v>17</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L4" s="10">
+        <v>85002</v>
+      </c>
       <c r="M4" s="58" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="46"/>
+      <c r="P4" s="46">
+        <v>40</v>
+      </c>
       <c r="Q4" s="49">
         <f>ROUNDUP(P4*N4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="R4" s="30">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="S4" s="30">
         <f>R4*Q4</f>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T4" s="50">
         <f>ROW(T4) - ROW($A$1)</f>
@@ -1464,49 +1557,55 @@
         <v>18</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L5" s="10">
+        <v>160</v>
+      </c>
       <c r="M5" s="58" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O5" s="10">
         <v>2</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="46">
+        <v>40</v>
+      </c>
       <c r="Q5" s="49">
         <f t="shared" ref="Q5" si="4">ROUNDUP(P5*N5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="R5" s="30">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="S5" s="30">
         <f t="shared" ref="S5" si="5">R5*Q5</f>
-        <v>0</v>
+        <v>7.1199999999999992</v>
       </c>
       <c r="T5" s="50">
         <f t="shared" si="3"/>
@@ -1522,49 +1621,55 @@
         <v>19</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
       <c r="M6" s="58" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O6" s="10">
-        <v>2</v>
-      </c>
-      <c r="P6" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="46">
+        <v>20</v>
+      </c>
       <c r="Q6" s="49">
         <f>ROUNDUP(P6*N6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0.19500000000000001</v>
+      </c>
       <c r="S6" s="30">
         <f>R6*Q6</f>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="T6" s="50">
         <f>ROW(T6) - ROW($A$1)</f>
@@ -1580,49 +1685,55 @@
         <v>20</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
       <c r="M7" s="58" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
       </c>
-      <c r="P7" s="46"/>
+      <c r="P7" s="46">
+        <v>20</v>
+      </c>
       <c r="Q7" s="49">
         <f t="shared" ref="Q7" si="6">ROUNDUP(P7*N7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7" si="7">R7*Q7</f>
-        <v>0</v>
+        <v>3.3800000000000003</v>
       </c>
       <c r="T7" s="50">
         <f t="shared" si="3"/>
@@ -1638,49 +1749,55 @@
         <v>21</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L8" s="10">
+        <v>218238</v>
+      </c>
       <c r="M8" s="58" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O8" s="10">
         <v>1</v>
       </c>
-      <c r="P8" s="46"/>
+      <c r="P8" s="46">
+        <v>20</v>
+      </c>
       <c r="Q8" s="49">
         <f>ROUNDUP(P8*N8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R8" s="30">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="S8" s="30">
         <f>R8*Q8</f>
-        <v>0</v>
+        <v>3.3800000000000003</v>
       </c>
       <c r="T8" s="50">
         <f>ROW(T8) - ROW($A$1)</f>
@@ -1696,49 +1813,55 @@
         <v>22</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L9" s="10">
+        <v>8268</v>
+      </c>
       <c r="M9" s="58" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O9" s="10">
         <v>1</v>
       </c>
-      <c r="P9" s="46"/>
+      <c r="P9" s="46">
+        <v>20</v>
+      </c>
       <c r="Q9" s="49">
         <f t="shared" ref="Q9" si="8">ROUNDUP(P9*N9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R9" s="30">
+        <v>0.32400000000000001</v>
+      </c>
       <c r="S9" s="30">
         <f t="shared" ref="S9" si="9">R9*Q9</f>
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="T9" s="50">
         <f t="shared" si="3"/>
@@ -1754,49 +1877,55 @@
         <v>23</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>107</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L10" s="10">
+        <v>18358</v>
+      </c>
       <c r="M10" s="58" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="46">
+        <v>20</v>
+      </c>
       <c r="Q10" s="49">
         <f>ROUNDUP(P10*N10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.63200000000000001</v>
+      </c>
       <c r="S10" s="30">
         <f>R10*Q10</f>
-        <v>0</v>
+        <v>12.64</v>
       </c>
       <c r="T10" s="50">
         <f>ROW(T10) - ROW($A$1)</f>
@@ -1812,49 +1941,55 @@
         <v>24</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
       <c r="M11" s="58" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="46"/>
+      <c r="P11" s="46">
+        <v>20</v>
+      </c>
       <c r="Q11" s="49">
         <f t="shared" ref="Q11" si="10">ROUNDUP(P11*N11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R11" s="30">
+        <v>0.22600000000000001</v>
+      </c>
       <c r="S11" s="30">
         <f t="shared" ref="S11" si="11">R11*Q11</f>
-        <v>0</v>
+        <v>4.5200000000000005</v>
       </c>
       <c r="T11" s="50">
         <f t="shared" si="3"/>
@@ -1870,49 +2005,55 @@
         <v>25</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
       <c r="M12" s="58" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O12" s="10">
         <v>5</v>
       </c>
-      <c r="P12" s="46"/>
+      <c r="P12" s="46">
+        <v>100</v>
+      </c>
       <c r="Q12" s="49">
         <f>ROUNDUP(P12*N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="R12" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="S12" s="30">
         <f>R12*Q12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T12" s="50">
         <f>ROW(T12) - ROW($A$1)</f>
@@ -1928,49 +2069,55 @@
         <v>26</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
       <c r="M13" s="58" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O13" s="10">
         <v>1</v>
       </c>
-      <c r="P13" s="46"/>
+      <c r="P13" s="46">
+        <v>20</v>
+      </c>
       <c r="Q13" s="49">
         <f t="shared" ref="Q13" si="12">ROUNDUP(P13*N13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R13" s="30">
+        <v>1.2E-2</v>
+      </c>
       <c r="S13" s="30">
         <f t="shared" ref="S13" si="13">R13*Q13</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T13" s="50">
         <f t="shared" si="3"/>
@@ -1986,49 +2133,55 @@
         <v>27</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1346281</v>
+      </c>
       <c r="M14" s="58" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O14" s="10">
         <v>1</v>
       </c>
-      <c r="P14" s="46"/>
+      <c r="P14" s="46">
+        <v>20</v>
+      </c>
       <c r="Q14" s="49">
         <f>ROUNDUP(P14*N14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.01</v>
+      </c>
       <c r="S14" s="30">
         <f>R14*Q14</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T14" s="50">
         <f>ROW(T14) - ROW($A$1)</f>
@@ -2044,49 +2197,55 @@
         <v>28</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L15" s="10">
+        <v>38932</v>
+      </c>
       <c r="M15" s="58" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O15" s="10">
         <v>1</v>
       </c>
-      <c r="P15" s="46"/>
+      <c r="P15" s="46">
+        <v>20</v>
+      </c>
       <c r="Q15" s="49">
         <f t="shared" ref="Q15" si="14">ROUNDUP(P15*N15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R15" s="30">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="S15" s="30">
         <f t="shared" ref="S15" si="15">R15*Q15</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T15" s="50">
         <f t="shared" si="3"/>
@@ -2102,49 +2261,55 @@
         <v>29</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L16" s="10">
+        <v>7715</v>
+      </c>
       <c r="M16" s="58" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O16" s="10">
         <v>1</v>
       </c>
-      <c r="P16" s="46"/>
+      <c r="P16" s="46">
+        <v>20</v>
+      </c>
       <c r="Q16" s="49">
         <f>ROUNDUP(P16*N16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R16" s="30">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="S16" s="30">
         <f>R16*Q16</f>
-        <v>0</v>
+        <v>0.85999999999999988</v>
       </c>
       <c r="T16" s="50">
         <f>ROW(T16) - ROW($A$1)</f>
@@ -2160,49 +2325,55 @@
         <v>30</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
       <c r="M17" s="58" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O17" s="10">
         <v>2</v>
       </c>
-      <c r="P17" s="46"/>
+      <c r="P17" s="46">
+        <v>40</v>
+      </c>
       <c r="Q17" s="49">
         <f t="shared" ref="Q17" si="16">ROUNDUP(P17*N17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="R17" s="30">
+        <v>1.2E-2</v>
+      </c>
       <c r="S17" s="30">
         <f t="shared" ref="S17" si="17">R17*Q17</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="T17" s="50">
         <f t="shared" si="3"/>
@@ -2218,49 +2389,55 @@
         <v>31</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L18" s="10">
+        <v>149925</v>
+      </c>
       <c r="M18" s="58" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O18" s="10">
         <v>2</v>
       </c>
-      <c r="P18" s="46"/>
+      <c r="P18" s="46">
+        <v>40</v>
+      </c>
       <c r="Q18" s="49">
         <f>ROUNDUP(P18*N18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="R18" s="30">
+        <v>1.2E-2</v>
+      </c>
       <c r="S18" s="30">
         <f>R18*Q18</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="T18" s="50">
         <f>ROW(T18) - ROW($A$1)</f>
@@ -2276,49 +2453,55 @@
         <v>32</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L19" s="10">
+        <v>23022</v>
+      </c>
       <c r="M19" s="58" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O19" s="10">
         <v>2</v>
       </c>
-      <c r="P19" s="46"/>
+      <c r="P19" s="46">
+        <v>40</v>
+      </c>
       <c r="Q19" s="49">
         <f t="shared" ref="Q19" si="18">ROUNDUP(P19*N19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0.55300000000000005</v>
+      </c>
       <c r="S19" s="30">
         <f t="shared" ref="S19" si="19">R19*Q19</f>
-        <v>0</v>
+        <v>22.12</v>
       </c>
       <c r="T19" s="50">
         <f t="shared" si="3"/>
@@ -2334,49 +2517,55 @@
         <v>33</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1605</v>
+      </c>
       <c r="M20" s="58" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O20" s="10">
         <v>1</v>
       </c>
-      <c r="P20" s="46"/>
+      <c r="P20" s="46">
+        <v>20</v>
+      </c>
       <c r="Q20" s="49">
         <f>ROUNDUP(P20*N20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R20" s="30">
+        <v>3.26</v>
+      </c>
       <c r="S20" s="30">
         <f>R20*Q20</f>
-        <v>0</v>
+        <v>65.199999999999989</v>
       </c>
       <c r="T20" s="50">
         <f>ROW(T20) - ROW($A$1)</f>
@@ -2392,49 +2581,55 @@
         <v>34</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L21" s="10">
+        <v>14229</v>
+      </c>
       <c r="M21" s="58" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O21" s="10">
         <v>1</v>
       </c>
-      <c r="P21" s="46"/>
+      <c r="P21" s="46">
+        <v>20</v>
+      </c>
       <c r="Q21" s="49">
         <f t="shared" ref="Q21" si="20">ROUNDUP(P21*N21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R21" s="30">
+        <v>0.621</v>
+      </c>
       <c r="S21" s="30">
         <f t="shared" ref="S21" si="21">R21*Q21</f>
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="T21" s="50">
         <f t="shared" si="3"/>
@@ -2450,249 +2645,195 @@
         <v>35</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="L22" s="10">
+        <v>4207</v>
+      </c>
       <c r="M22" s="58" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="46"/>
+      <c r="P22" s="46">
+        <v>20</v>
+      </c>
       <c r="Q22" s="49">
         <f>ROUNDUP(P22*N22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="R22" s="30">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="S22" s="30">
         <f>R22*Q22</f>
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T22" s="50">
         <f>ROW(T22) - ROW($A$1)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="10">
+    <row r="23" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="K24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="49" t="e">
-        <f t="shared" ref="Q23" si="22">ROUNDUP(P23*N23,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30" t="e">
-        <f t="shared" ref="S23" si="23">R23*Q23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T23" s="50">
-        <f t="shared" si="3"/>
-        <v>22</v>
+      <c r="L24" s="14"/>
+      <c r="M24" s="35">
+        <f ca="1">NOW()</f>
+        <v>43025.716827662036</v>
+      </c>
+      <c r="N24" s="41"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="37">
+        <f>SUM(S2:S22)</f>
+        <v>183.09999999999997</v>
+      </c>
+      <c r="T24" s="45">
+        <f>(SUM(S2:S22))/P25</f>
+        <v>9.1549999999999976</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+    <row r="25" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="K25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="35">
-        <f ca="1">NOW()</f>
-        <v>42912.4935625</v>
-      </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="37" t="e">
-        <f>SUM(S2:S23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T25" s="45" t="e">
-        <f>(SUM(S2:S23))/P26</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="T26" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="P27" s="51"/>
+    <row r="26" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" tooltip="Component" display="'Supplier disabled"/>
-    <hyperlink ref="H3" r:id="rId2" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H4" r:id="rId3" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H5" r:id="rId4" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H6" r:id="rId5" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H7" r:id="rId6" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H8" r:id="rId7" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H9" r:id="rId8" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H10" r:id="rId9" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H11" r:id="rId10" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H12" r:id="rId11" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H13" r:id="rId12" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H14" r:id="rId13" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H15" r:id="rId14" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H16" r:id="rId15" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H17" r:id="rId16" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H18" r:id="rId17" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H19" r:id="rId18" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H20" r:id="rId19" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H21" r:id="rId20" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H22" r:id="rId21" tooltip="Component" display="'Loading..."/>
-    <hyperlink ref="H23" tooltip="Component" display="'"/>
-    <hyperlink ref="I2" r:id="rId22" tooltip="Manufacturer" display="'Supplier disabled"/>
-    <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I4" r:id="rId24" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I5" r:id="rId25" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I7" r:id="rId27" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I8" r:id="rId28" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I9" r:id="rId29" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I10" r:id="rId30" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I11" r:id="rId31" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I12" r:id="rId32" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I13" r:id="rId33" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I14" r:id="rId34" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I15" r:id="rId35" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I16" r:id="rId36" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I17" r:id="rId37" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I18" r:id="rId38" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I19" r:id="rId39" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I20" r:id="rId40" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I21" r:id="rId41" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I22" r:id="rId42" tooltip="Manufacturer" display="'Loading..."/>
-    <hyperlink ref="I23" tooltip="Manufacturer" display="'"/>
-    <hyperlink ref="M2" r:id="rId43" tooltip="Supplier" display="'Mouser - 720-LSL29K-G1J2-1-Z"/>
-    <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-06035C104KAT2A"/>
-    <hyperlink ref="M4" r:id="rId45" tooltip="Supplier" display="'581-02013A180GAT2A"/>
-    <hyperlink ref="M5" r:id="rId46" tooltip="Supplier" display="'581-06035A330J"/>
-    <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'81-GCM188R71C105K64D"/>
+    <hyperlink ref="H2" r:id="rId1" tooltip="Component" display="'AVX"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="Component" display="'AVX"/>
+    <hyperlink ref="H4" r:id="rId3" tooltip="Component" display="'AVX"/>
+    <hyperlink ref="H5" r:id="rId4" tooltip="Component" display="'Murata Electronics"/>
+    <hyperlink ref="H6" r:id="rId5" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
+    <hyperlink ref="H7" r:id="rId6" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
+    <hyperlink ref="H8" r:id="rId7" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
+    <hyperlink ref="H9" r:id="rId8" tooltip="Component" display="'ON Semiconductor"/>
+    <hyperlink ref="H10" r:id="rId9" tooltip="Component" display="'Hirose Connector"/>
+    <hyperlink ref="H11" r:id="rId10" tooltip="Component" display="'Diodes Incorporated"/>
+    <hyperlink ref="H12" r:id="rId11" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H13" r:id="rId12" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H14" r:id="rId13" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H15" r:id="rId14" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H16" r:id="rId15" tooltip="Component" display="'Susumu"/>
+    <hyperlink ref="H17" r:id="rId16" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H18" r:id="rId17" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H19" r:id="rId18" tooltip="Component" display="'Panasonic"/>
+    <hyperlink ref="H20" r:id="rId19" tooltip="Component" display="'NXP Semiconductors"/>
+    <hyperlink ref="H21" r:id="rId20" tooltip="Component" display="'Texas Instruments"/>
+    <hyperlink ref="H22" r:id="rId21" tooltip="Component" display="'TXC Corporation"/>
+    <hyperlink ref="I2" r:id="rId22" tooltip="Manufacturer" display="'06035C104KAT2A"/>
+    <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'02013A180GAT2A"/>
+    <hyperlink ref="I4" r:id="rId24" tooltip="Manufacturer" display="'06035A330JAT2A"/>
+    <hyperlink ref="I5" r:id="rId25" tooltip="Manufacturer" display="'GCM188R71C105KA64D"/>
+    <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'LS L29K-G1J2-1-Z"/>
+    <hyperlink ref="I7" r:id="rId27" tooltip="Manufacturer" display="'LG L29K-F2J1-24-Z"/>
+    <hyperlink ref="I8" r:id="rId28" tooltip="Manufacturer" display="'LB Q39G-L2OO-35-1"/>
+    <hyperlink ref="I9" r:id="rId29" tooltip="Manufacturer" display="'NSR20F30NXT5G"/>
+    <hyperlink ref="I10" r:id="rId30" tooltip="Manufacturer" display="'UX60A-MB-5ST"/>
+    <hyperlink ref="I11" r:id="rId31" tooltip="Manufacturer" display="'BSS84W-7-F"/>
+    <hyperlink ref="I12" r:id="rId32" tooltip="Manufacturer" display="'ERJ-3EKF1002V"/>
+    <hyperlink ref="I13" r:id="rId33" tooltip="Manufacturer" display="'ERJ-3EKF1501V"/>
+    <hyperlink ref="I14" r:id="rId34" tooltip="Manufacturer" display="'ERJ-3GEY0R00V"/>
+    <hyperlink ref="I15" r:id="rId35" tooltip="Manufacturer" display="'ERJ-3GEYJ183V"/>
+    <hyperlink ref="I16" r:id="rId36" tooltip="Manufacturer" display="'RR0816P-681-D"/>
+    <hyperlink ref="I17" r:id="rId37" tooltip="Manufacturer" display="'ERJ-3EKF4700V"/>
+    <hyperlink ref="I18" r:id="rId38" tooltip="Manufacturer" display="'ERJ-3EKF33R0V"/>
+    <hyperlink ref="I19" r:id="rId39" tooltip="Manufacturer" display="'EVQ-P2202M"/>
+    <hyperlink ref="I20" r:id="rId40" tooltip="Manufacturer" display="'LPC11U35FHI33/501,"/>
+    <hyperlink ref="I21" r:id="rId41" tooltip="Manufacturer" display="'TPS78233DDCR"/>
+    <hyperlink ref="I22" r:id="rId42" tooltip="Manufacturer" display="'8Z-12.000MAAJ-T"/>
+    <hyperlink ref="M2" r:id="rId43" tooltip="Supplier" display="'581-06035C104KAT2A"/>
+    <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-02013A180GAT2A"/>
+    <hyperlink ref="M4" r:id="rId45" tooltip="Supplier" display="'581-06035A330J"/>
+    <hyperlink ref="M5" r:id="rId46" tooltip="Supplier" display="'81-GCM188R71C105K64D"/>
+    <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'720-LSL29K-G1J2-1-Z"/>
     <hyperlink ref="M7" r:id="rId48" tooltip="Supplier" display="'720-LGL29KF2J124Z"/>
     <hyperlink ref="M8" r:id="rId49" tooltip="Supplier" display="'720-LBQ39GL2N2351"/>
     <hyperlink ref="M9" r:id="rId50" tooltip="Supplier" display="'863-NSR20F30NXT5G"/>
@@ -2709,7 +2850,6 @@
     <hyperlink ref="M20" r:id="rId61" tooltip="Supplier" display="'771-LPC11U35FHI33501"/>
     <hyperlink ref="M21" r:id="rId62" tooltip="Supplier" display="'595-TPS78233DDCR"/>
     <hyperlink ref="M22" r:id="rId63" tooltip="Supplier" display="'717-8Z-12.000MAAJ-T"/>
-    <hyperlink ref="M23" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId64"/>

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
   <si>
     <t>Item #</t>
   </si>
@@ -49,10 +49,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>17/10/2017</t>
-  </si>
-  <si>
-    <t>17:12:07</t>
+    <t>18/10/2017</t>
+  </si>
+  <si>
+    <t>12:40:18</t>
   </si>
   <si>
     <t>20</t>
@@ -265,9 +265,6 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 0.1uF 10% X7R</t>
   </si>
   <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 25volts 18pF 2% C0G</t>
-  </si>
-  <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 33pF 5% C0G</t>
   </si>
   <si>
@@ -364,7 +361,7 @@
     <t>06035C104KAT2A</t>
   </si>
   <si>
-    <t>02013A180GAT2A</t>
+    <t>06031A180GAT2A</t>
   </si>
   <si>
     <t>06035A330JAT2A</t>
@@ -439,7 +436,7 @@
     <t>581-06035C104KAT2A</t>
   </si>
   <si>
-    <t>581-02013A180GAT2A</t>
+    <t>581-06031A180GAT2A</t>
   </si>
   <si>
     <t>581-06035A330J</t>
@@ -1317,37 +1314,37 @@
         <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1378,25 +1375,25 @@
         <v>82</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="10">
-        <v>448529</v>
+        <v>444509</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O2" s="10">
         <v>3</v>
@@ -1439,28 +1436,28 @@
         <v>74</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="10">
-        <v>33130</v>
+        <v>10288</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O3" s="10">
         <v>2</v>
@@ -1473,11 +1470,11 @@
         <v>40</v>
       </c>
       <c r="R3" s="30">
-        <v>0.28599999999999998</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" ref="S3:S22" si="2">R3*Q3</f>
-        <v>11.44</v>
+        <v>10.760000000000002</v>
       </c>
       <c r="T3" s="50">
         <f t="shared" ref="T3:T22" si="3">ROW(T3) - ROW($A$1)</f>
@@ -1503,28 +1500,28 @@
         <v>74</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="10">
         <v>85002</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O4" s="10">
         <v>2</v>
@@ -1567,28 +1564,28 @@
         <v>74</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="10">
         <v>160</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" s="10">
         <v>2</v>
@@ -1634,25 +1631,25 @@
         <v>75</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="10">
         <v>0</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O6" s="10">
         <v>1</v>
@@ -1695,28 +1692,28 @@
         <v>75</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" s="10">
         <v>0</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
@@ -1759,28 +1756,28 @@
         <v>75</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="10">
-        <v>218238</v>
+        <v>218163</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O8" s="10">
         <v>1</v>
@@ -1823,28 +1820,28 @@
         <v>76</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="57" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="10">
         <v>8268</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" s="10">
         <v>1</v>
@@ -1887,28 +1884,28 @@
         <v>75</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="10">
         <v>18358</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
@@ -1951,28 +1948,28 @@
         <v>77</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="10">
         <v>1</v>
@@ -2015,28 +2012,28 @@
         <v>78</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L12" s="10">
         <v>0</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12" s="10">
         <v>5</v>
@@ -2079,28 +2076,28 @@
         <v>78</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13" s="10">
         <v>0</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O13" s="10">
         <v>1</v>
@@ -2143,28 +2140,28 @@
         <v>78</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" s="10">
-        <v>1346281</v>
+        <v>1274838</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O14" s="10">
         <v>1</v>
@@ -2207,28 +2204,28 @@
         <v>78</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L15" s="10">
         <v>38932</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O15" s="10">
         <v>1</v>
@@ -2271,28 +2268,28 @@
         <v>78</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" s="10">
-        <v>7715</v>
+        <v>12715</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O16" s="10">
         <v>1</v>
@@ -2335,28 +2332,28 @@
         <v>78</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="10">
         <v>0</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O17" s="10">
         <v>2</v>
@@ -2399,28 +2396,28 @@
         <v>78</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="10">
-        <v>149925</v>
+        <v>149825</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O18" s="10">
         <v>2</v>
@@ -2463,28 +2460,28 @@
         <v>79</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="57" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="10">
         <v>23022</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O19" s="10">
         <v>2</v>
@@ -2527,28 +2524,28 @@
         <v>75</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L20" s="10">
         <v>1605</v>
       </c>
       <c r="M20" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="10">
         <v>1</v>
@@ -2591,28 +2588,28 @@
         <v>75</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L21" s="10">
         <v>14229</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="10">
         <v>1</v>
@@ -2655,28 +2652,28 @@
         <v>80</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="10">
-        <v>4207</v>
+        <v>2682</v>
       </c>
       <c r="M22" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O22" s="10">
         <v>1</v>
@@ -2746,7 +2743,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="35">
         <f ca="1">NOW()</f>
-        <v>43025.716827662036</v>
+        <v>43026.528066087965</v>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="15"/>
@@ -2757,11 +2754,11 @@
       </c>
       <c r="S24" s="37">
         <f>SUM(S2:S22)</f>
-        <v>183.09999999999997</v>
+        <v>182.42</v>
       </c>
       <c r="T24" s="45">
         <f>(SUM(S2:S22))/P25</f>
-        <v>9.1549999999999976</v>
+        <v>9.1209999999999987</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2809,7 +2806,7 @@
     <hyperlink ref="H21" r:id="rId20" tooltip="Component" display="'Texas Instruments"/>
     <hyperlink ref="H22" r:id="rId21" tooltip="Component" display="'TXC Corporation"/>
     <hyperlink ref="I2" r:id="rId22" tooltip="Manufacturer" display="'06035C104KAT2A"/>
-    <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'02013A180GAT2A"/>
+    <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'06031A180GAT2A"/>
     <hyperlink ref="I4" r:id="rId24" tooltip="Manufacturer" display="'06035A330JAT2A"/>
     <hyperlink ref="I5" r:id="rId25" tooltip="Manufacturer" display="'GCM188R71C105KA64D"/>
     <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'LS L29K-G1J2-1-Z"/>
@@ -2830,7 +2827,7 @@
     <hyperlink ref="I21" r:id="rId41" tooltip="Manufacturer" display="'TPS78233DDCR"/>
     <hyperlink ref="I22" r:id="rId42" tooltip="Manufacturer" display="'8Z-12.000MAAJ-T"/>
     <hyperlink ref="M2" r:id="rId43" tooltip="Supplier" display="'581-06035C104KAT2A"/>
-    <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-02013A180GAT2A"/>
+    <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-06031A180GAT2A"/>
     <hyperlink ref="M4" r:id="rId45" tooltip="Supplier" display="'581-06035A330J"/>
     <hyperlink ref="M5" r:id="rId46" tooltip="Supplier" display="'81-GCM188R71C105K64D"/>
     <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'720-LSL29K-G1J2-1-Z"/>

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,10 +49,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>18/10/2017</t>
-  </si>
-  <si>
-    <t>12:40:18</t>
+    <t>27/10/2017</t>
+  </si>
+  <si>
+    <t>16:11:44</t>
   </si>
   <si>
     <t>20</t>
@@ -193,10 +193,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>0603_cap</t>
-  </si>
-  <si>
-    <t>0603_CAP</t>
+    <t>0603_CAP_SMALL</t>
   </si>
   <si>
     <t>0603_LED_RED</t>
@@ -208,16 +205,16 @@
     <t>0603_LED_BLU</t>
   </si>
   <si>
-    <t>0603_DIODE-CDSU101A</t>
-  </si>
-  <si>
-    <t>USB-MINI-B-HIR-UX60A-MB-5ST</t>
+    <t>0603_DIODE-NSR20F30</t>
+  </si>
+  <si>
+    <t>USB-MINI-B-HIR-UX60A-MB-5ST-SMALL</t>
   </si>
   <si>
     <t>SOT323/SC70-3_SMALL</t>
   </si>
   <si>
-    <t>0603_res</t>
+    <t>0603_res_SMALL</t>
   </si>
   <si>
     <t>BUTTON_4.7x3.5mm</t>
@@ -244,7 +241,7 @@
     <t/>
   </si>
   <si>
-    <t>DIODE</t>
+    <t>SCHOTTKY DIODE 0603</t>
   </si>
   <si>
     <t>POWER MOSFET-P SOT23</t>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
@@ -1305,34 +1305,34 @@
         <v>58</v>
       </c>
       <c r="E1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>162</v>
@@ -1369,31 +1369,31 @@
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="10">
-        <v>444509</v>
+        <v>323877</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O2" s="10">
         <v>3</v>
@@ -1433,31 +1433,31 @@
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>75</v>
-      </c>
       <c r="H3" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" s="10">
         <v>10288</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O3" s="10">
         <v>2</v>
@@ -1497,31 +1497,31 @@
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="10">
-        <v>85002</v>
+        <v>84802</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O4" s="10">
         <v>2</v>
@@ -1557,35 +1557,35 @@
         <v>40</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L5" s="10">
+        <v>718765</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="O5" s="10">
         <v>2</v>
@@ -1598,11 +1598,11 @@
         <v>40</v>
       </c>
       <c r="R5" s="30">
-        <v>0.17799999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="S5" s="30">
         <f t="shared" ref="S5" si="5">R5*Q5</f>
-        <v>7.1199999999999992</v>
+        <v>7.4399999999999995</v>
       </c>
       <c r="T5" s="50">
         <f t="shared" si="3"/>
@@ -1621,35 +1621,35 @@
         <v>41</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L6" s="10">
         <v>0</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O6" s="10">
         <v>1</v>
@@ -1685,35 +1685,35 @@
         <v>42</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="10">
         <v>0</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
@@ -1749,35 +1749,35 @@
         <v>43</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" s="10">
-        <v>218163</v>
+        <v>214586</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O8" s="10">
         <v>1</v>
@@ -1813,32 +1813,32 @@
         <v>44</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="57" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="10">
-        <v>8268</v>
+        <v>6910</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N9" s="43" t="s">
         <v>161</v>
@@ -1851,14 +1851,14 @@
       </c>
       <c r="Q9" s="49">
         <f t="shared" ref="Q9" si="8">ROUNDUP(P9*N9,0)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R9" s="30">
         <v>0.32400000000000001</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" ref="S9" si="9">R9*Q9</f>
-        <v>6.48</v>
+        <v>8.4239999999999995</v>
       </c>
       <c r="T9" s="50">
         <f t="shared" si="3"/>
@@ -1877,35 +1877,35 @@
         <v>45</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="10">
-        <v>18358</v>
+        <v>18067</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
@@ -1941,35 +1941,35 @@
         <v>46</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O11" s="10">
         <v>1</v>
@@ -2005,35 +2005,35 @@
         <v>47</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" s="10">
         <v>0</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O12" s="10">
         <v>5</v>
@@ -2069,35 +2069,35 @@
         <v>48</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="10">
         <v>0</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O13" s="10">
         <v>1</v>
@@ -2133,35 +2133,35 @@
         <v>49</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14" s="10">
-        <v>1274838</v>
+        <v>1022780</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O14" s="10">
         <v>1</v>
@@ -2197,35 +2197,35 @@
         <v>50</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L15" s="10">
-        <v>38932</v>
+        <v>38924</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O15" s="10">
         <v>1</v>
@@ -2261,35 +2261,35 @@
         <v>51</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L16" s="10">
-        <v>12715</v>
+        <v>12252</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O16" s="10">
         <v>1</v>
@@ -2325,35 +2325,35 @@
         <v>52</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" s="10">
-        <v>0</v>
+        <v>27987</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O17" s="10">
         <v>2</v>
@@ -2389,35 +2389,35 @@
         <v>53</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" s="10">
-        <v>149825</v>
+        <v>216663</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O18" s="10">
         <v>2</v>
@@ -2453,35 +2453,35 @@
         <v>54</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="57" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" s="10">
         <v>23022</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O19" s="10">
         <v>2</v>
@@ -2517,35 +2517,35 @@
         <v>55</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="10">
-        <v>1605</v>
+        <v>5015</v>
       </c>
       <c r="M20" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O20" s="10">
         <v>1</v>
@@ -2581,35 +2581,35 @@
         <v>56</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L21" s="10">
-        <v>14229</v>
+        <v>17939</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O21" s="10">
         <v>1</v>
@@ -2645,35 +2645,35 @@
         <v>57</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L22" s="10">
-        <v>2682</v>
+        <v>2377</v>
       </c>
       <c r="M22" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O22" s="10">
         <v>1</v>
@@ -2743,7 +2743,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="35">
         <f ca="1">NOW()</f>
-        <v>43026.528066087965</v>
+        <v>43035.674917129632</v>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="15"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="S24" s="37">
         <f>SUM(S2:S22)</f>
-        <v>182.42</v>
+        <v>184.68399999999997</v>
       </c>
       <c r="T24" s="45">
         <f>(SUM(S2:S22))/P25</f>
-        <v>9.1209999999999987</v>
+        <v>9.2341999999999977</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
   <si>
     <t>Item #</t>
   </si>
@@ -49,10 +49,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>27/10/2017</t>
-  </si>
-  <si>
-    <t>16:11:44</t>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t>09:26:15</t>
   </si>
   <si>
     <t>20</t>
@@ -268,7 +268,10 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1.0uF 16volts X7R 10%</t>
   </si>
   <si>
-    <t>Standard LEDs - SMD Green, 570nm 10mcd, 2mA</t>
+    <t>Standard LEDs - SMD Super Red, 633nm 180mcd, 20mA</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD GREEN WATER CLEAR</t>
   </si>
   <si>
     <t>Standard LEDs - SMD Blue, 470nm 45mcd, 5mA</t>
@@ -328,6 +331,9 @@
     <t>OSRAM Opto Semiconductors</t>
   </si>
   <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
@@ -367,10 +373,10 @@
     <t>GCM188R71C105KA64D</t>
   </si>
   <si>
-    <t>LS L29K-G1J2-1-Z</t>
-  </si>
-  <si>
-    <t>LG L29K-F2J1-24-Z</t>
+    <t>LS Q976-NR-1</t>
+  </si>
+  <si>
+    <t>APT1608SGC</t>
   </si>
   <si>
     <t>LB Q39G-L2OO-35-1</t>
@@ -442,10 +448,10 @@
     <t>81-GCM188R71C105K64D</t>
   </si>
   <si>
-    <t>720-LSL29K-G1J2-1-Z</t>
-  </si>
-  <si>
-    <t>720-LGL29KF2J124Z</t>
+    <t>720-LSQ976-NR-1</t>
+  </si>
+  <si>
+    <t>604-APT1608SGC</t>
   </si>
   <si>
     <t>720-LBQ39GL2N2351</t>
@@ -1314,37 +1320,37 @@
         <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1375,25 +1381,25 @@
         <v>81</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2" s="10">
-        <v>323877</v>
+        <v>310846</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O2" s="10">
         <v>3</v>
@@ -1439,25 +1445,25 @@
         <v>74</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3" s="10">
-        <v>10288</v>
+        <v>10285</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O3" s="10">
         <v>2</v>
@@ -1503,25 +1509,25 @@
         <v>82</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4" s="10">
-        <v>84802</v>
+        <v>84787</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O4" s="10">
         <v>2</v>
@@ -1567,25 +1573,25 @@
         <v>83</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="10">
-        <v>718765</v>
+        <v>718242</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O5" s="10">
         <v>2</v>
@@ -1628,28 +1634,28 @@
         <v>74</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6" s="10">
-        <v>0</v>
+        <v>378706</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O6" s="10">
         <v>1</v>
@@ -1662,11 +1668,11 @@
         <v>20</v>
       </c>
       <c r="R6" s="30">
-        <v>0.19500000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S6" s="30">
         <f>R6*Q6</f>
-        <v>3.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="T6" s="50">
         <f>ROW(T6) - ROW($A$1)</f>
@@ -1692,28 +1698,28 @@
         <v>74</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7" s="10">
-        <v>0</v>
+        <v>131423</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
@@ -1726,11 +1732,11 @@
         <v>20</v>
       </c>
       <c r="R7" s="30">
-        <v>0.16900000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7" si="7">R7*Q7</f>
-        <v>3.3800000000000003</v>
+        <v>1.42</v>
       </c>
       <c r="T7" s="50">
         <f t="shared" si="3"/>
@@ -1756,28 +1762,28 @@
         <v>74</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L8" s="10">
-        <v>214586</v>
+        <v>190552</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O8" s="10">
         <v>1</v>
@@ -1820,28 +1826,28 @@
         <v>75</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I9" s="57" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" s="10">
         <v>6910</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O9" s="10">
         <v>1</v>
@@ -1884,28 +1890,28 @@
         <v>74</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="10">
-        <v>18067</v>
+        <v>18014</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
@@ -1948,28 +1954,28 @@
         <v>76</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O11" s="10">
         <v>1</v>
@@ -2012,28 +2018,28 @@
         <v>77</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L12" s="10">
         <v>0</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O12" s="10">
         <v>5</v>
@@ -2076,28 +2082,28 @@
         <v>77</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="10">
         <v>0</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O13" s="10">
         <v>1</v>
@@ -2140,28 +2146,28 @@
         <v>77</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" s="10">
-        <v>1022780</v>
+        <v>987320</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O14" s="10">
         <v>1</v>
@@ -2204,28 +2210,28 @@
         <v>77</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L15" s="10">
         <v>38924</v>
       </c>
       <c r="M15" s="58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O15" s="10">
         <v>1</v>
@@ -2268,28 +2274,28 @@
         <v>77</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" s="10">
         <v>12252</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O16" s="10">
         <v>1</v>
@@ -2332,28 +2338,28 @@
         <v>77</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L17" s="10">
-        <v>27987</v>
+        <v>25904</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O17" s="10">
         <v>2</v>
@@ -2396,28 +2402,28 @@
         <v>77</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L18" s="10">
-        <v>216663</v>
+        <v>216662</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O18" s="10">
         <v>2</v>
@@ -2460,28 +2466,28 @@
         <v>78</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" s="57" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="10">
         <v>23022</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O19" s="10">
         <v>2</v>
@@ -2524,28 +2530,28 @@
         <v>74</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="10">
         <v>5015</v>
       </c>
       <c r="M20" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O20" s="10">
         <v>1</v>
@@ -2588,28 +2594,28 @@
         <v>74</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="10">
-        <v>17939</v>
+        <v>23179</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O21" s="10">
         <v>1</v>
@@ -2652,28 +2658,28 @@
         <v>79</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L22" s="10">
-        <v>2377</v>
+        <v>2369</v>
       </c>
       <c r="M22" s="58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O22" s="10">
         <v>1</v>
@@ -2743,7 +2749,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="35">
         <f ca="1">NOW()</f>
-        <v>43035.674917129632</v>
+        <v>43039.393317476854</v>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="15"/>
@@ -2754,11 +2760,11 @@
       </c>
       <c r="S24" s="37">
         <f>SUM(S2:S22)</f>
-        <v>184.68399999999997</v>
+        <v>181.74399999999997</v>
       </c>
       <c r="T24" s="45">
         <f>(SUM(S2:S22))/P25</f>
-        <v>9.2341999999999977</v>
+        <v>9.0871999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2789,7 +2795,7 @@
     <hyperlink ref="H4" r:id="rId3" tooltip="Component" display="'AVX"/>
     <hyperlink ref="H5" r:id="rId4" tooltip="Component" display="'Murata Electronics"/>
     <hyperlink ref="H6" r:id="rId5" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
-    <hyperlink ref="H7" r:id="rId6" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
+    <hyperlink ref="H7" r:id="rId6" tooltip="Component" display="'Kingbright"/>
     <hyperlink ref="H8" r:id="rId7" tooltip="Component" display="'OSRAM Opto Semiconductors"/>
     <hyperlink ref="H9" r:id="rId8" tooltip="Component" display="'ON Semiconductor"/>
     <hyperlink ref="H10" r:id="rId9" tooltip="Component" display="'Hirose Connector"/>
@@ -2809,8 +2815,8 @@
     <hyperlink ref="I3" r:id="rId23" tooltip="Manufacturer" display="'06031A180GAT2A"/>
     <hyperlink ref="I4" r:id="rId24" tooltip="Manufacturer" display="'06035A330JAT2A"/>
     <hyperlink ref="I5" r:id="rId25" tooltip="Manufacturer" display="'GCM188R71C105KA64D"/>
-    <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'LS L29K-G1J2-1-Z"/>
-    <hyperlink ref="I7" r:id="rId27" tooltip="Manufacturer" display="'LG L29K-F2J1-24-Z"/>
+    <hyperlink ref="I6" r:id="rId26" tooltip="Manufacturer" display="'LS Q976-NR-1"/>
+    <hyperlink ref="I7" r:id="rId27" tooltip="Manufacturer" display="'APT1608SGC"/>
     <hyperlink ref="I8" r:id="rId28" tooltip="Manufacturer" display="'LB Q39G-L2OO-35-1"/>
     <hyperlink ref="I9" r:id="rId29" tooltip="Manufacturer" display="'NSR20F30NXT5G"/>
     <hyperlink ref="I10" r:id="rId30" tooltip="Manufacturer" display="'UX60A-MB-5ST"/>
@@ -2830,8 +2836,8 @@
     <hyperlink ref="M3" r:id="rId44" tooltip="Supplier" display="'581-06031A180GAT2A"/>
     <hyperlink ref="M4" r:id="rId45" tooltip="Supplier" display="'581-06035A330J"/>
     <hyperlink ref="M5" r:id="rId46" tooltip="Supplier" display="'81-GCM188R71C105K64D"/>
-    <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'720-LSL29K-G1J2-1-Z"/>
-    <hyperlink ref="M7" r:id="rId48" tooltip="Supplier" display="'720-LGL29KF2J124Z"/>
+    <hyperlink ref="M6" r:id="rId47" tooltip="Supplier" display="'720-LSQ976-NR-1"/>
+    <hyperlink ref="M7" r:id="rId48" tooltip="Supplier" display="'604-APT1608SGC"/>
     <hyperlink ref="M8" r:id="rId49" tooltip="Supplier" display="'720-LBQ39GL2N2351"/>
     <hyperlink ref="M9" r:id="rId50" tooltip="Supplier" display="'863-NSR20F30NXT5G"/>
     <hyperlink ref="M10" r:id="rId51" tooltip="Supplier" display="'798-UX60A-MB-5ST"/>

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A951D3-B09B-4091-A96E-22F4886AD1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{261A2B59-1474-423D-A746-F0EA66FCE9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Item #</t>
   </si>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>16:31</t>
+    <t>17:43</t>
   </si>
   <si>
     <t>20</t>
@@ -135,9 +135,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>12MHz</t>
-  </si>
-  <si>
-    <t>N-5</t>
   </si>
   <si>
     <t>Footprint</t>
@@ -1206,7 +1200,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -1240,46 +1234,46 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
@@ -1297,31 +1291,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J2" s="10">
-        <v>1903646</v>
+        <v>1903578</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" s="42">
         <v>1</v>
@@ -1350,38 +1344,38 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
+        <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J3" s="10">
         <v>5890</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" s="42">
         <v>1</v>
@@ -1393,18 +1387,18 @@
         <v>200</v>
       </c>
       <c r="O3" s="47">
-        <f t="shared" ref="O3:O23" si="1">ROUNDUP(N3*L3,0)</f>
+        <f t="shared" ref="O3:O22" si="1">ROUNDUP(N3*L3,0)</f>
         <v>200</v>
       </c>
       <c r="P3" s="30">
         <v>0.16994999999999999</v>
       </c>
       <c r="Q3" s="30">
-        <f t="shared" ref="Q3:Q23" si="2">P3*O3</f>
+        <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
         <v>33.989999999999995</v>
       </c>
       <c r="R3" s="48">
-        <f t="shared" ref="R3:R23" si="3">ROW(R3) - ROW($A$1)</f>
+        <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1417,31 +1411,31 @@
         <v>16</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J4" s="10">
         <v>99945</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="42">
         <v>1</v>
@@ -1477,31 +1471,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J5" s="10">
         <v>237124</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="42">
         <v>1</v>
@@ -1537,29 +1531,29 @@
         <v>18</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J6" s="10">
         <v>68800</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L6" s="42">
         <v>1</v>
@@ -1595,29 +1589,29 @@
         <v>19</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J7" s="10">
-        <v>43738</v>
+        <v>43490</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="42">
         <v>1</v>
@@ -1653,29 +1647,29 @@
         <v>20</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J8" s="10">
         <v>58555</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="42">
         <v>1</v>
@@ -1711,31 +1705,31 @@
         <v>21</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J9" s="10">
         <v>115642</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" s="42">
         <v>1.3</v>
@@ -1771,29 +1765,29 @@
         <v>22</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J10" s="10">
         <v>22003</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" s="42">
         <v>1</v>
@@ -1829,31 +1823,31 @@
         <v>23</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J11" s="10">
         <v>97994</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="42">
         <v>1</v>
@@ -1889,31 +1883,31 @@
         <v>24</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J12" s="10">
         <v>1924459</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" s="42">
         <v>1</v>
@@ -1949,31 +1943,31 @@
         <v>25</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J13" s="10">
         <v>23930</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" s="42">
         <v>1</v>
@@ -2009,31 +2003,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J14" s="10">
         <v>231704</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" s="42">
         <v>1</v>
@@ -2069,31 +2063,31 @@
         <v>27</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J15" s="10">
         <v>54524</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" s="42">
         <v>1</v>
@@ -2129,31 +2123,31 @@
         <v>28</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J16" s="10">
         <v>70706</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16" s="42">
         <v>1</v>
@@ -2189,31 +2183,31 @@
         <v>29</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H17" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J17" s="10">
-        <v>4399591</v>
+        <v>4399293</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L17" s="42">
         <v>1</v>
@@ -2249,31 +2243,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J18" s="10">
         <v>19360</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L18" s="42">
         <v>1</v>
@@ -2309,31 +2303,31 @@
         <v>31</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J19" s="10">
         <v>15015</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="42">
         <v>1</v>
@@ -2345,14 +2339,14 @@
         <v>200</v>
       </c>
       <c r="O19" s="47">
-        <f t="shared" ref="O19:O23" si="18">ROUNDUP(N19*L19,0)</f>
+        <f t="shared" ref="O19:O22" si="18">ROUNDUP(N19*L19,0)</f>
         <v>200</v>
       </c>
       <c r="P19" s="30">
         <v>0.48826999999999998</v>
       </c>
       <c r="Q19" s="30">
-        <f t="shared" ref="Q19:Q23" si="19">P19*O19</f>
+        <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
         <v>97.653999999999996</v>
       </c>
       <c r="R19" s="48">
@@ -2369,29 +2363,29 @@
         <v>32</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J20" s="10">
         <v>843</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="42">
         <v>1</v>
@@ -2427,29 +2421,29 @@
         <v>33</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J21" s="10">
         <v>27461</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L21" s="42">
         <v>1</v>
@@ -2485,31 +2479,31 @@
         <v>34</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G22" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="I22" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J22" s="10">
         <v>959</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L22" s="42">
         <v>1</v>
@@ -2536,124 +2530,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="47">
-        <f t="shared" ref="O23" si="22">ROUNDUP(N23*L23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30">
-        <f t="shared" ref="Q23" si="23">P23*O23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="48">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+    <row r="24" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="I24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="34">
+        <f ca="1">NOW()</f>
+        <v>43843.738721527778</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="36">
+        <f>SUM(Q2:Q22)</f>
+        <v>752.05489999999998</v>
+      </c>
+      <c r="R24" s="50">
+        <f>Q24/N25</f>
+        <v>37.602744999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="I25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="34">
-        <f ca="1">NOW()</f>
-        <v>43843.688709374997</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="36">
-        <f>SUM(Q2:Q23)</f>
-        <v>752.05489999999998</v>
-      </c>
-      <c r="R25" s="50">
-        <f>Q25/N26</f>
-        <v>37.602744999999999</v>
+    <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="39"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="49"/>
+    <row r="26" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="49"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261A2B59-1474-423D-A746-F0EA66FCE9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FDED8-F30A-4328-A0F5-7F410E4AA455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
   <si>
     <t>Item #</t>
   </si>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>17:43</t>
+    <t>11:49</t>
   </si>
   <si>
     <t>20</t>
@@ -204,7 +204,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>0603_CAP_SMALL</t>
+    <t>0402_CAP</t>
   </si>
   <si>
     <t>0603_LED_RED</t>
@@ -225,7 +225,10 @@
     <t>SOT323/SC70-3_SMALL</t>
   </si>
   <si>
-    <t>0603_res_SMALL</t>
+    <t>0402_res</t>
+  </si>
+  <si>
+    <t>0402_RES</t>
   </si>
   <si>
     <t>BUTTON_4.7x3.5mm</t>
@@ -264,10 +267,13 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Kyocera AVX</t>
-  </si>
-  <si>
-    <t>Murata</t>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Walsin Technologies</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
   </si>
   <si>
     <t>Osram Opto</t>
@@ -285,12 +291,15 @@
     <t>Diodes</t>
   </si>
   <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>Susumu</t>
-  </si>
-  <si>
     <t>NXP Semiconductors</t>
   </si>
   <si>
@@ -303,16 +312,16 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>06031A180GAT2A</t>
-  </si>
-  <si>
-    <t>06035A330JAT2A/4K</t>
-  </si>
-  <si>
-    <t>GCM188R71C105KA64D</t>
+    <t>885012105016</t>
+  </si>
+  <si>
+    <t>0402N180F500CT</t>
+  </si>
+  <si>
+    <t>885012005058</t>
+  </si>
+  <si>
+    <t>JMK105BJ105KP-F</t>
   </si>
   <si>
     <t>LSQ976-NR-1</t>
@@ -330,25 +339,25 @@
     <t>BSS84W-7-F</t>
   </si>
   <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>RR0816P-681-D</t>
-  </si>
-  <si>
-    <t>ERJ3EKF4700V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ183V</t>
+    <t>CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402680RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402470RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW040233R0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04021K50FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04020000Z0EDC</t>
+  </si>
+  <si>
+    <t>CRCW040218K0FKED</t>
   </si>
   <si>
     <t>LPC11U35FHI33/501,</t>
@@ -378,16 +387,16 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>581-06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>581-06031A180GAT2A</t>
-  </si>
-  <si>
-    <t>581-06035A330J</t>
-  </si>
-  <si>
-    <t>81-GCM188R71C105K64D</t>
+    <t>710-885012105016</t>
+  </si>
+  <si>
+    <t>791-0402N180F500CT</t>
+  </si>
+  <si>
+    <t>710-885012005058</t>
+  </si>
+  <si>
+    <t>963-JMK105BJ105KP-F</t>
   </si>
   <si>
     <t>720-LSQ976-NR-1</t>
@@ -408,25 +417,25 @@
     <t>621-BSS84W-F</t>
   </si>
   <si>
-    <t>667-ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>754-RR0816P-681D</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF4700V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEYJ183V</t>
+    <t>71-CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402680RFKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402470RFKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW040233R0FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW04021K50FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW04020000Z0EDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402-18K-E3</t>
   </si>
   <si>
     <t>667-EVQ-P2202M</t>
@@ -1240,40 +1249,40 @@
         <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
@@ -1297,25 +1306,25 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>1903578</v>
+        <v>40996</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L2" s="42">
         <v>1</v>
@@ -1331,18 +1340,18 @@
         <v>300</v>
       </c>
       <c r="P2" s="30">
-        <v>4.2259999999999999E-2</v>
+        <v>1.8849999999999999E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>12.677999999999999</v>
+        <v>5.6549999999999994</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
@@ -1357,25 +1366,25 @@
         <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J3" s="10">
-        <v>5890</v>
+        <v>5900</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L3" s="42">
         <v>1</v>
@@ -1391,11 +1400,11 @@
         <v>200</v>
       </c>
       <c r="P3" s="30">
-        <v>0.16994999999999999</v>
+        <v>3.5909999999999997E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>33.989999999999995</v>
+        <v>7.1819999999999995</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1417,25 +1426,25 @@
         <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" s="10">
-        <v>99945</v>
+        <v>34052</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L4" s="42">
         <v>1</v>
@@ -1451,11 +1460,11 @@
         <v>200</v>
       </c>
       <c r="P4" s="30">
-        <v>2.7879999999999999E-2</v>
+        <v>1.257E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>5.5759999999999996</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1477,25 +1486,25 @@
         <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J5" s="10">
-        <v>237124</v>
+        <v>25442</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L5" s="42">
         <v>1</v>
@@ -1511,11 +1520,11 @@
         <v>200</v>
       </c>
       <c r="P5" s="30">
-        <v>8.9020000000000002E-2</v>
+        <v>2.8729999999999999E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>17.804000000000002</v>
+        <v>5.7459999999999996</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1538,22 +1547,22 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>68800</v>
+        <v>68575</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L6" s="42">
         <v>1</v>
@@ -1569,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8339999999999998E-2</v>
+        <v>6.8220000000000003E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8339999999999996</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1596,22 +1605,22 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J7" s="10">
         <v>43490</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L7" s="42">
         <v>1</v>
@@ -1627,11 +1636,11 @@
         <v>100</v>
       </c>
       <c r="P7" s="30">
-        <v>5.0360000000000002E-2</v>
+        <v>5.0270000000000002E-2</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>5.0360000000000005</v>
+        <v>5.0270000000000001</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1654,22 +1663,22 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J8" s="10">
-        <v>58555</v>
+        <v>58553</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L8" s="42">
         <v>1</v>
@@ -1685,11 +1694,11 @@
         <v>100</v>
       </c>
       <c r="P8" s="30">
-        <v>0.10879999999999999</v>
+        <v>0.10861999999999999</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>10.879999999999999</v>
+        <v>10.862</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1711,25 +1720,25 @@
         <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" s="10">
         <v>115642</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L9" s="42">
         <v>1.3</v>
@@ -1745,11 +1754,11 @@
         <v>130</v>
       </c>
       <c r="P9" s="30">
-        <v>0.18612999999999999</v>
+        <v>0.18582000000000001</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>24.196899999999999</v>
+        <v>24.156600000000001</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1772,22 +1781,22 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>22003</v>
+        <v>21568</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L10" s="42">
         <v>1</v>
@@ -1803,11 +1812,11 @@
         <v>100</v>
       </c>
       <c r="P10" s="30">
-        <v>0.61414999999999997</v>
+        <v>0.61312</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>61.414999999999999</v>
+        <v>61.311999999999998</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1829,25 +1838,25 @@
         <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J11" s="10">
-        <v>97994</v>
+        <v>97989</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L11" s="42">
         <v>1</v>
@@ -1863,11 +1872,11 @@
         <v>100</v>
       </c>
       <c r="P11" s="30">
-        <v>0.10251</v>
+        <v>0.10234</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>10.251000000000001</v>
+        <v>10.234</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1889,25 +1898,25 @@
         <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1924459</v>
+        <v>1868158</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L12" s="42">
         <v>1</v>
@@ -1923,11 +1932,11 @@
         <v>1000</v>
       </c>
       <c r="P12" s="30">
-        <v>9.8899999999999995E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>9.8899999999999988</v>
+        <v>4.49</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1949,25 +1958,25 @@
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J13" s="10">
-        <v>23930</v>
+        <v>69395</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L13" s="42">
         <v>1</v>
@@ -1983,18 +1992,18 @@
         <v>100</v>
       </c>
       <c r="P13" s="30">
-        <v>3.1469999999999998E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>3.1469999999999998</v>
+        <v>1.167</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>ROW(A14) - ROW($A$1)</f>
         <v>13</v>
@@ -2006,28 +2015,28 @@
         <v>48</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>231704</v>
+        <v>84527</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L14" s="42">
         <v>1</v>
@@ -2043,18 +2052,18 @@
         <v>200</v>
       </c>
       <c r="P14" s="30">
-        <v>1.7979999999999999E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>3.5960000000000001</v>
+        <v>2.3340000000000001</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2069,25 +2078,25 @@
         <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>54524</v>
+        <v>135537</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L15" s="42">
         <v>1</v>
@@ -2103,11 +2112,11 @@
         <v>200</v>
       </c>
       <c r="P15" s="30">
-        <v>2.3380000000000001E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>4.6760000000000002</v>
+        <v>2.3340000000000001</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2129,25 +2138,25 @@
         <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>70706</v>
+        <v>99644</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" s="42">
         <v>1</v>
@@ -2163,11 +2172,11 @@
         <v>100</v>
       </c>
       <c r="P16" s="30">
-        <v>2.1579999999999998E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>2.1579999999999999</v>
+        <v>1.167</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2189,25 +2198,25 @@
         <v>65</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>4399293</v>
+        <v>900334</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L17" s="42">
         <v>1</v>
@@ -2223,11 +2232,11 @@
         <v>100</v>
       </c>
       <c r="P17" s="30">
-        <v>8.9899999999999997E-3</v>
+        <v>5.3899999999999998E-3</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.89900000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2246,28 +2255,28 @@
         <v>52</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>19360</v>
+        <v>18062</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L18" s="42">
         <v>1</v>
@@ -2283,11 +2292,11 @@
         <v>100</v>
       </c>
       <c r="P18" s="30">
-        <v>1.529E-2</v>
+        <v>2.4240000000000001E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>1.5289999999999999</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2306,28 +2315,28 @@
         <v>53</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J19" s="10">
         <v>15015</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="42">
         <v>1</v>
@@ -2343,11 +2352,11 @@
         <v>200</v>
       </c>
       <c r="P19" s="30">
-        <v>0.48826999999999998</v>
+        <v>0.48743999999999998</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>97.653999999999996</v>
+        <v>97.488</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2366,26 +2375,26 @@
         <v>54</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J20" s="10">
         <v>843</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="42">
         <v>1</v>
@@ -2401,11 +2410,11 @@
         <v>100</v>
       </c>
       <c r="P20" s="30">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" s="30">
         <f>P20*O20</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R20" s="48">
         <f>ROW(R20) - ROW($A$1)</f>
@@ -2424,26 +2433,26 @@
         <v>55</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J21" s="10">
         <v>27461</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" s="42">
         <v>1</v>
@@ -2459,11 +2468,11 @@
         <v>100</v>
       </c>
       <c r="P21" s="30">
-        <v>0.38845000000000002</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>38.844999999999999</v>
+        <v>38.78</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2482,28 +2491,28 @@
         <v>56</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J22" s="10">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L22" s="42">
         <v>1</v>
@@ -2519,11 +2528,11 @@
         <v>100</v>
       </c>
       <c r="P22" s="30">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Q22" s="30">
         <f>P22*O22</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R22" s="48">
         <f>ROW(R22) - ROW($A$1)</f>
@@ -2570,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43843.738721527778</v>
+        <v>43844.492883564817</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2581,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>752.05489999999998</v>
+        <v>689.23360000000002</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>37.602744999999999</v>
+        <v>34.461680000000001</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FDED8-F30A-4328-A0F5-7F410E4AA455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86B0947-896A-4A64-BE67-9B4E09066D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>11:49</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>11:31</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>Designator</t>
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>40996</v>
+        <v>40946</v>
       </c>
       <c r="K2" s="46" t="s">
         <v>119</v>
@@ -1333,18 +1333,18 @@
         <v>3</v>
       </c>
       <c r="N2" s="44">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="O2" s="47">
         <f>ROUNDUP(N2*L2,0)</f>
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="P2" s="30">
-        <v>1.8849999999999999E-2</v>
+        <v>1.8870000000000001E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>5.6549999999999994</v>
+        <v>2.03796</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
@@ -1393,18 +1393,18 @@
         <v>2</v>
       </c>
       <c r="N3" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O3" s="47">
         <f t="shared" ref="O3:O22" si="1">ROUNDUP(N3*L3,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P3" s="30">
-        <v>3.5909999999999997E-2</v>
+        <v>3.594E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>7.1819999999999995</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1453,18 +1453,18 @@
         <v>2</v>
       </c>
       <c r="N4" s="44">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O4" s="47">
         <f>ROUNDUP(N4*L4,0)</f>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="P4" s="30">
-        <v>1.257E-2</v>
+        <v>1.4370000000000001E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>2.5139999999999998</v>
+        <v>1.03464</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1513,18 +1513,18 @@
         <v>2</v>
       </c>
       <c r="N5" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O5" s="47">
         <f t="shared" ref="O5" si="4">ROUNDUP(N5*L5,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P5" s="30">
-        <v>2.8729999999999999E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>5.7459999999999996</v>
+        <v>2.875</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1559,7 +1559,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>68575</v>
+        <v>67675</v>
       </c>
       <c r="K6" s="46" t="s">
         <v>123</v>
@@ -1578,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8220000000000003E-2</v>
+        <v>6.8279999999999993E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8220000000000001</v>
+        <v>6.8279999999999994</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1617,7 +1617,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="10">
-        <v>43490</v>
+        <v>40404</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>124</v>
@@ -1629,18 +1629,18 @@
         <v>1</v>
       </c>
       <c r="N7" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O7" s="47">
         <f t="shared" ref="O7:O9" si="6">ROUNDUP(N7*L7,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P7" s="30">
-        <v>5.0270000000000002E-2</v>
+        <v>0.10421</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>5.0270000000000001</v>
+        <v>3.75156</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1687,18 +1687,18 @@
         <v>1</v>
       </c>
       <c r="N8" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O8" s="47">
         <f>ROUNDUP(N8*L8,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P8" s="30">
-        <v>0.10861999999999999</v>
+        <v>0.26951999999999998</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>10.862</v>
+        <v>9.7027199999999993</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1747,18 +1747,18 @@
         <v>1</v>
       </c>
       <c r="N9" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O9" s="47">
         <f t="shared" ref="O9" si="8">ROUNDUP(N9*L9,0)</f>
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="P9" s="30">
-        <v>0.18582000000000001</v>
+        <v>0.34227999999999997</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>24.156600000000001</v>
+        <v>16.087159999999997</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>21568</v>
+        <v>21413</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>127</v>
@@ -1805,18 +1805,18 @@
         <v>1</v>
       </c>
       <c r="N10" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O10" s="47">
         <f>ROUNDUP(N10*L10,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P10" s="30">
-        <v>0.61312</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>61.311999999999998</v>
+        <v>24.0624</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1865,18 +1865,18 @@
         <v>1</v>
       </c>
       <c r="N11" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O11" s="47">
         <f t="shared" ref="O11:O17" si="10">ROUNDUP(N11*L11,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P11" s="30">
-        <v>0.10234</v>
+        <v>0.23896999999999999</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>10.234</v>
+        <v>8.6029199999999992</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1913,7 +1913,7 @@
         <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1868158</v>
+        <v>1859432</v>
       </c>
       <c r="K12" s="46" t="s">
         <v>129</v>
@@ -1925,18 +1925,18 @@
         <v>5</v>
       </c>
       <c r="N12" s="44">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="O12" s="47">
         <f>ROUNDUP(N12*L12,0)</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="P12" s="30">
-        <v>4.4900000000000001E-3</v>
+        <v>1.1679999999999999E-2</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>4.49</v>
+        <v>2.1023999999999998</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1985,18 +1985,18 @@
         <v>1</v>
       </c>
       <c r="N13" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O13" s="47">
         <f t="shared" ref="O13" si="12">ROUNDUP(N13*L13,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P13" s="30">
-        <v>1.167E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>1.167</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
@@ -2033,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>84527</v>
+        <v>84497</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>131</v>
@@ -2045,18 +2045,18 @@
         <v>2</v>
       </c>
       <c r="N14" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O14" s="47">
         <f>ROUNDUP(N14*L14,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P14" s="30">
-        <v>1.167E-2</v>
+        <v>1.1679999999999999E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>2.3340000000000001</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
@@ -2093,7 +2093,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>135537</v>
+        <v>135522</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>132</v>
@@ -2105,18 +2105,18 @@
         <v>2</v>
       </c>
       <c r="N15" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="47">
         <f t="shared" ref="O15:O17" si="14">ROUNDUP(N15*L15,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="30">
-        <v>1.167E-2</v>
+        <v>1.1679999999999999E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>2.3340000000000001</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2153,7 +2153,7 @@
         <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>99644</v>
+        <v>99619</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>133</v>
@@ -2165,18 +2165,18 @@
         <v>1</v>
       </c>
       <c r="N16" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O16" s="47">
         <f>ROUNDUP(N16*L16,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P16" s="30">
-        <v>1.167E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>1.167</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2213,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>900334</v>
+        <v>899812</v>
       </c>
       <c r="K17" s="46" t="s">
         <v>134</v>
@@ -2225,18 +2225,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O17" s="47">
         <f t="shared" ref="O17" si="16">ROUNDUP(N17*L17,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P17" s="30">
-        <v>5.3899999999999998E-3</v>
+        <v>1.4370000000000001E-2</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.53900000000000003</v>
+        <v>0.51732</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2273,7 +2273,7 @@
         <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>18062</v>
+        <v>17512</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>135</v>
@@ -2285,18 +2285,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O18" s="47">
         <f>ROUNDUP(N18*L18,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P18" s="30">
-        <v>2.4240000000000001E-2</v>
+        <v>3.5040000000000002E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>2.4239999999999999</v>
+        <v>1.2614400000000001</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2345,18 +2345,18 @@
         <v>2</v>
       </c>
       <c r="N19" s="44">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O19" s="47">
         <f t="shared" ref="O19:O22" si="18">ROUNDUP(N19*L19,0)</f>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="P19" s="30">
-        <v>0.48743999999999998</v>
+        <v>0.64773000000000003</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>97.488</v>
+        <v>46.636560000000003</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2403,18 +2403,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O20" s="47">
         <f>ROUNDUP(N20*L20,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P20" s="30">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q20" s="30">
         <f>P20*O20</f>
-        <v>298</v>
+        <v>123.84</v>
       </c>
       <c r="R20" s="48">
         <f>ROW(R20) - ROW($A$1)</f>
@@ -2449,7 +2449,7 @@
         <v>116</v>
       </c>
       <c r="J21" s="10">
-        <v>27461</v>
+        <v>27457</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>138</v>
@@ -2461,18 +2461,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O21" s="47">
         <f t="shared" ref="O21" si="20">ROUNDUP(N21*L21,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P21" s="30">
-        <v>0.38779999999999998</v>
+        <v>0.60192000000000001</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>38.78</v>
+        <v>21.669119999999999</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2521,18 +2521,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O22" s="47">
         <f>ROUNDUP(N22*L22,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P22" s="30">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="Q22" s="30">
         <f>P22*O22</f>
-        <v>101</v>
+        <v>43.92</v>
       </c>
       <c r="R22" s="48">
         <f>ROW(R22) - ROW($A$1)</f>
@@ -2579,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43844.492883564817</v>
+        <v>43845.480064467592</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>689.23360000000002</v>
+        <v>322.92920000000004</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>34.461680000000001</v>
+        <v>8.970255555555557</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86B0947-896A-4A64-BE67-9B4E09066D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A3C2BD-9556-4682-9B67-12CC6E4F9D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>11:31</t>
+    <t>16:31</t>
   </si>
   <si>
     <t>36</t>
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>40946</v>
+        <v>37050</v>
       </c>
       <c r="K2" s="46" t="s">
         <v>119</v>
@@ -1340,11 +1340,11 @@
         <v>108</v>
       </c>
       <c r="P2" s="30">
-        <v>1.8870000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>2.03796</v>
+        <v>2.052</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
@@ -1400,11 +1400,11 @@
         <v>100</v>
       </c>
       <c r="P3" s="30">
-        <v>3.594E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>3.5939999999999999</v>
+        <v>3.62</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1441,7 +1441,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="10">
-        <v>34052</v>
+        <v>33872</v>
       </c>
       <c r="K4" s="46" t="s">
         <v>121</v>
@@ -1460,11 +1460,11 @@
         <v>72</v>
       </c>
       <c r="P4" s="30">
-        <v>1.4370000000000001E-2</v>
+        <v>1.448E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>1.03464</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1501,7 +1501,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="10">
-        <v>25442</v>
+        <v>9999</v>
       </c>
       <c r="K5" s="46" t="s">
         <v>122</v>
@@ -1520,11 +1520,11 @@
         <v>100</v>
       </c>
       <c r="P5" s="30">
-        <v>2.8750000000000001E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>2.875</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1559,7 +1559,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>67675</v>
+        <v>59043</v>
       </c>
       <c r="K6" s="46" t="s">
         <v>123</v>
@@ -1578,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8279999999999993E-2</v>
+        <v>6.8769999999999998E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8279999999999994</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1617,7 +1617,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="10">
-        <v>40404</v>
+        <v>98272</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>124</v>
@@ -1636,11 +1636,11 @@
         <v>36</v>
       </c>
       <c r="P7" s="30">
-        <v>0.10421</v>
+        <v>0.10496999999999999</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>3.75156</v>
+        <v>3.7789199999999998</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="10">
-        <v>58553</v>
+        <v>57880</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>125</v>
@@ -1694,11 +1694,11 @@
         <v>36</v>
       </c>
       <c r="P8" s="30">
-        <v>0.26951999999999998</v>
+        <v>0.27146999999999999</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>9.7027199999999993</v>
+        <v>9.7729199999999992</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1735,7 +1735,7 @@
         <v>116</v>
       </c>
       <c r="J9" s="10">
-        <v>115642</v>
+        <v>116092</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>126</v>
@@ -1754,11 +1754,11 @@
         <v>47</v>
       </c>
       <c r="P9" s="30">
-        <v>0.34227999999999997</v>
+        <v>0.34477000000000002</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>16.087159999999997</v>
+        <v>16.204190000000001</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>21413</v>
+        <v>21003</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>127</v>
@@ -1812,11 +1812,11 @@
         <v>36</v>
       </c>
       <c r="P10" s="30">
-        <v>0.66839999999999999</v>
+        <v>0.67325000000000002</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>24.0624</v>
+        <v>24.237000000000002</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1853,7 +1853,7 @@
         <v>116</v>
       </c>
       <c r="J11" s="10">
-        <v>97989</v>
+        <v>94764</v>
       </c>
       <c r="K11" s="46" t="s">
         <v>128</v>
@@ -1872,11 +1872,11 @@
         <v>36</v>
       </c>
       <c r="P11" s="30">
-        <v>0.23896999999999999</v>
+        <v>0.2407</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>8.6029199999999992</v>
+        <v>8.6652000000000005</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1913,7 +1913,7 @@
         <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1859432</v>
+        <v>1836811</v>
       </c>
       <c r="K12" s="46" t="s">
         <v>129</v>
@@ -1932,11 +1932,11 @@
         <v>180</v>
       </c>
       <c r="P12" s="30">
-        <v>1.1679999999999999E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>2.1023999999999998</v>
+        <v>2.1168</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1973,7 +1973,7 @@
         <v>116</v>
       </c>
       <c r="J13" s="10">
-        <v>69395</v>
+        <v>68380</v>
       </c>
       <c r="K13" s="46" t="s">
         <v>130</v>
@@ -1992,11 +1992,11 @@
         <v>36</v>
       </c>
       <c r="P13" s="30">
-        <v>2.8750000000000001E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>1.0350000000000001</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
@@ -2033,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>84497</v>
+        <v>83930</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>131</v>
@@ -2052,11 +2052,11 @@
         <v>100</v>
       </c>
       <c r="P14" s="30">
-        <v>1.1679999999999999E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>1.1679999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
@@ -2093,7 +2093,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>135522</v>
+        <v>131942</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>132</v>
@@ -2112,11 +2112,11 @@
         <v>100</v>
       </c>
       <c r="P15" s="30">
-        <v>1.1679999999999999E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>1.1679999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2153,7 +2153,7 @@
         <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>99619</v>
+        <v>98927</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>133</v>
@@ -2172,11 +2172,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="30">
-        <v>2.8750000000000001E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>1.0350000000000001</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2213,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>899812</v>
+        <v>891522</v>
       </c>
       <c r="K17" s="46" t="s">
         <v>134</v>
@@ -2232,11 +2232,11 @@
         <v>36</v>
       </c>
       <c r="P17" s="30">
-        <v>1.4370000000000001E-2</v>
+        <v>1.448E-2</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.51732</v>
+        <v>0.52127999999999997</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2273,7 +2273,7 @@
         <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>17512</v>
+        <v>16412</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>135</v>
@@ -2292,11 +2292,11 @@
         <v>36</v>
       </c>
       <c r="P18" s="30">
-        <v>3.5040000000000002E-2</v>
+        <v>3.5290000000000002E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>1.2614400000000001</v>
+        <v>1.27044</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2333,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="J19" s="10">
-        <v>15015</v>
+        <v>14994</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>136</v>
@@ -2352,11 +2352,11 @@
         <v>72</v>
       </c>
       <c r="P19" s="30">
-        <v>0.64773000000000003</v>
+        <v>0.65244000000000002</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>46.636560000000003</v>
+        <v>46.975680000000004</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2410,11 +2410,11 @@
         <v>36</v>
       </c>
       <c r="P20" s="30">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="Q20" s="30">
         <f>P20*O20</f>
-        <v>123.84</v>
+        <v>124.92</v>
       </c>
       <c r="R20" s="48">
         <f>ROW(R20) - ROW($A$1)</f>
@@ -2449,7 +2449,7 @@
         <v>116</v>
       </c>
       <c r="J21" s="10">
-        <v>27457</v>
+        <v>27364</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>138</v>
@@ -2468,11 +2468,11 @@
         <v>36</v>
       </c>
       <c r="P21" s="30">
-        <v>0.60192000000000001</v>
+        <v>0.60629</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>21.669119999999999</v>
+        <v>21.826439999999998</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2509,7 +2509,7 @@
         <v>116</v>
       </c>
       <c r="J22" s="10">
-        <v>930</v>
+        <v>530</v>
       </c>
       <c r="K22" s="46" t="s">
         <v>139</v>
@@ -2528,11 +2528,11 @@
         <v>36</v>
       </c>
       <c r="P22" s="30">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Q22" s="30">
         <f>P22*O22</f>
-        <v>43.92</v>
+        <v>44.28</v>
       </c>
       <c r="R22" s="48">
         <f>ROW(R22) - ROW($A$1)</f>
@@ -2579,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43845.480064467592</v>
+        <v>43854.688447569446</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>322.92920000000004</v>
+        <v>325.49355000000003</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>8.970255555555557</v>
+        <v>9.0414875000000006</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A3C2BD-9556-4682-9B67-12CC6E4F9D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75928E3E-76B0-4E90-B460-74A522EABA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>16:31</t>
+    <t>21:05</t>
   </si>
   <si>
     <t>36</t>
@@ -1235,7 +1235,7 @@
     <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>37050</v>
+        <v>14550</v>
       </c>
       <c r="K2" s="46" t="s">
         <v>119</v>
@@ -1340,11 +1340,11 @@
         <v>108</v>
       </c>
       <c r="P2" s="30">
-        <v>1.9E-2</v>
+        <v>1.9050000000000001E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>2.052</v>
+        <v>2.0573999999999999</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
@@ -1381,7 +1381,7 @@
         <v>116</v>
       </c>
       <c r="J3" s="10">
-        <v>5900</v>
+        <v>5760</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>120</v>
@@ -1400,11 +1400,11 @@
         <v>100</v>
       </c>
       <c r="P3" s="30">
-        <v>3.6200000000000003E-2</v>
+        <v>3.628E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>3.62</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1441,7 +1441,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="10">
-        <v>33872</v>
+        <v>33732</v>
       </c>
       <c r="K4" s="46" t="s">
         <v>121</v>
@@ -1460,11 +1460,11 @@
         <v>72</v>
       </c>
       <c r="P4" s="30">
-        <v>1.448E-2</v>
+        <v>1.451E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>1.0425599999999999</v>
+        <v>1.0447200000000001</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1501,7 +1501,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="10">
-        <v>9999</v>
+        <v>9007</v>
       </c>
       <c r="K5" s="46" t="s">
         <v>122</v>
@@ -1520,11 +1520,11 @@
         <v>100</v>
       </c>
       <c r="P5" s="30">
-        <v>2.896E-2</v>
+        <v>2.9020000000000001E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>2.8959999999999999</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1559,7 +1559,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>59043</v>
+        <v>55905</v>
       </c>
       <c r="K6" s="46" t="s">
         <v>123</v>
@@ -1578,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8769999999999998E-2</v>
+        <v>6.8930000000000005E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8769999999999998</v>
+        <v>6.8930000000000007</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1617,7 +1617,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="10">
-        <v>98272</v>
+        <v>85016</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>124</v>
@@ -1636,11 +1636,11 @@
         <v>36</v>
       </c>
       <c r="P7" s="30">
-        <v>0.10496999999999999</v>
+        <v>0.10521</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>3.7789199999999998</v>
+        <v>3.78756</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="10">
-        <v>57880</v>
+        <v>57670</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>125</v>
@@ -1694,11 +1694,11 @@
         <v>36</v>
       </c>
       <c r="P8" s="30">
-        <v>0.27146999999999999</v>
+        <v>0.27210000000000001</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>9.7729199999999992</v>
+        <v>9.7956000000000003</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1735,7 +1735,7 @@
         <v>116</v>
       </c>
       <c r="J9" s="10">
-        <v>116092</v>
+        <v>112788</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>126</v>
@@ -1754,11 +1754,11 @@
         <v>47</v>
       </c>
       <c r="P9" s="30">
-        <v>0.34477000000000002</v>
+        <v>0.34556999999999999</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>16.204190000000001</v>
+        <v>16.241789999999998</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>21003</v>
+        <v>18449</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>127</v>
@@ -1812,11 +1812,11 @@
         <v>36</v>
       </c>
       <c r="P10" s="30">
-        <v>0.67325000000000002</v>
+        <v>0.67481000000000002</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>24.237000000000002</v>
+        <v>24.29316</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1853,7 +1853,7 @@
         <v>116</v>
       </c>
       <c r="J11" s="10">
-        <v>94764</v>
+        <v>94693</v>
       </c>
       <c r="K11" s="46" t="s">
         <v>128</v>
@@ -1872,11 +1872,11 @@
         <v>36</v>
       </c>
       <c r="P11" s="30">
-        <v>0.2407</v>
+        <v>0.24126</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>8.6652000000000005</v>
+        <v>8.6853599999999993</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1913,7 +1913,7 @@
         <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1836811</v>
+        <v>1804342</v>
       </c>
       <c r="K12" s="46" t="s">
         <v>129</v>
@@ -1932,11 +1932,11 @@
         <v>180</v>
       </c>
       <c r="P12" s="30">
-        <v>1.176E-2</v>
+        <v>1.179E-2</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>2.1168</v>
+        <v>2.1221999999999999</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1973,7 +1973,7 @@
         <v>116</v>
       </c>
       <c r="J13" s="10">
-        <v>68380</v>
+        <v>68280</v>
       </c>
       <c r="K13" s="46" t="s">
         <v>130</v>
@@ -1992,11 +1992,11 @@
         <v>36</v>
       </c>
       <c r="P13" s="30">
-        <v>2.896E-2</v>
+        <v>2.9020000000000001E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>1.0425599999999999</v>
+        <v>1.0447200000000001</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
@@ -2033,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>83930</v>
+        <v>83450</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>131</v>
@@ -2052,11 +2052,11 @@
         <v>100</v>
       </c>
       <c r="P14" s="30">
-        <v>1.176E-2</v>
+        <v>1.179E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>1.1759999999999999</v>
+        <v>1.179</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
@@ -2093,7 +2093,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>131942</v>
+        <v>131140</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>132</v>
@@ -2112,11 +2112,11 @@
         <v>100</v>
       </c>
       <c r="P15" s="30">
-        <v>1.176E-2</v>
+        <v>1.179E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>1.1759999999999999</v>
+        <v>1.179</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2153,7 +2153,7 @@
         <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>98927</v>
+        <v>88605</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>133</v>
@@ -2172,11 +2172,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="30">
-        <v>2.896E-2</v>
+        <v>2.9020000000000001E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>1.0425599999999999</v>
+        <v>1.0447200000000001</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2213,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>891522</v>
+        <v>857327</v>
       </c>
       <c r="K17" s="46" t="s">
         <v>134</v>
@@ -2232,11 +2232,11 @@
         <v>36</v>
       </c>
       <c r="P17" s="30">
-        <v>1.448E-2</v>
+        <v>1.451E-2</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.52127999999999997</v>
+        <v>0.52236000000000005</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2273,7 +2273,7 @@
         <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>16412</v>
+        <v>16077</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>135</v>
@@ -2292,11 +2292,11 @@
         <v>36</v>
       </c>
       <c r="P18" s="30">
-        <v>3.5290000000000002E-2</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>1.27044</v>
+        <v>1.27332</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2333,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="J19" s="10">
-        <v>14994</v>
+        <v>14899</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>136</v>
@@ -2352,11 +2352,11 @@
         <v>72</v>
       </c>
       <c r="P19" s="30">
-        <v>0.65244000000000002</v>
+        <v>0.65395000000000003</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>46.975680000000004</v>
+        <v>47.084400000000002</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2391,7 +2391,7 @@
         <v>116</v>
       </c>
       <c r="J20" s="10">
-        <v>843</v>
+        <v>806</v>
       </c>
       <c r="K20" s="46" t="s">
         <v>137</v>
@@ -2449,7 +2449,7 @@
         <v>116</v>
       </c>
       <c r="J21" s="10">
-        <v>27364</v>
+        <v>27275</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>138</v>
@@ -2468,11 +2468,11 @@
         <v>36</v>
       </c>
       <c r="P21" s="30">
-        <v>0.60629</v>
+        <v>0.60768999999999995</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>21.826439999999998</v>
+        <v>21.876839999999998</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2509,7 +2509,7 @@
         <v>116</v>
       </c>
       <c r="J22" s="10">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="K22" s="46" t="s">
         <v>139</v>
@@ -2579,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43854.688447569446</v>
+        <v>43860.878761689812</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>325.49355000000003</v>
+        <v>325.85515000000009</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>9.0414875000000006</v>
+        <v>9.0515319444444469</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
